--- a/xls/mergedallpubliblished.xlsx
+++ b/xls/mergedallpubliblished.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha 1 - mergedallpubliblished" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha 1 - mergedallpubliblished" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="858">
-  <si>
-    <t>mergedallpubliblished</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="857">
   <si>
     <t>key</t>
   </si>
@@ -48,7 +53,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -76,7 +81,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Arial"/>
@@ -93,7 +98,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="10"/>
         <color indexed="13"/>
         <rFont val="Arial"/>
@@ -112,7 +117,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -135,7 +140,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -158,7 +163,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -276,7 +281,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -302,7 +307,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -313,7 +318,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -336,7 +341,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -368,7 +373,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -391,7 +396,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -414,7 +419,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -451,7 +456,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -474,7 +479,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -497,7 +502,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -520,7 +525,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -543,7 +548,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -563,7 +568,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -593,7 +598,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -616,7 +621,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -639,7 +644,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -662,7 +667,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -685,7 +690,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -708,7 +713,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -731,7 +736,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -754,7 +759,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -777,7 +782,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -800,7 +805,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -823,7 +828,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -846,7 +851,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -869,7 +874,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -892,7 +897,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -915,7 +920,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -938,7 +943,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -961,7 +966,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -984,7 +989,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1007,7 +1012,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1030,7 +1035,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1053,7 +1058,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1085,7 +1090,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1108,7 +1113,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1128,7 +1133,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1151,7 +1156,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1183,7 +1188,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1206,7 +1211,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1227,7 +1232,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1247,7 +1252,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1274,7 +1279,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1297,7 +1302,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1320,7 +1325,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1343,7 +1348,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1380,7 +1385,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1406,7 +1411,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1432,7 +1437,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -1443,7 +1448,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1466,7 +1471,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1489,7 +1494,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1512,7 +1517,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1532,7 +1537,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1555,7 +1560,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1582,7 +1587,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1605,7 +1610,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1628,7 +1633,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1651,7 +1656,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1674,7 +1679,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1697,7 +1702,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1717,7 +1722,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1737,7 +1742,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1760,7 +1765,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1783,7 +1788,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1815,7 +1820,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1832,7 +1837,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1855,7 +1860,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1875,7 +1880,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1898,7 +1903,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1921,7 +1926,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1944,7 +1949,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1976,7 +1981,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1999,7 +2004,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2022,7 +2027,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2045,7 +2050,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2068,7 +2073,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2095,7 +2100,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2115,7 +2120,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2138,7 +2143,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2161,7 +2166,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2184,7 +2189,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2207,7 +2212,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2230,7 +2235,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2253,7 +2258,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2285,7 +2290,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2308,7 +2313,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2340,7 +2345,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2360,7 +2365,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2380,7 +2385,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2403,7 +2408,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2426,7 +2431,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2446,7 +2451,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2466,7 +2471,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2486,7 +2491,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2506,7 +2511,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2529,7 +2534,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2552,7 +2557,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2575,7 +2580,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2595,7 +2600,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2615,7 +2620,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2638,7 +2643,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2661,7 +2666,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2689,7 +2694,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
@@ -2700,7 +2705,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2723,7 +2728,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2746,7 +2751,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2778,7 +2783,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2801,7 +2806,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2824,7 +2829,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2844,7 +2849,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2867,7 +2872,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2887,7 +2892,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2907,7 +2912,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2939,7 +2944,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2962,7 +2967,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2985,7 +2990,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3008,7 +3013,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3028,7 +3033,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3051,7 +3056,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3074,7 +3079,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3097,7 +3102,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3120,7 +3125,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3140,7 +3145,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3163,7 +3168,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3186,7 +3191,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3209,7 +3214,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3232,7 +3237,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3252,7 +3257,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3275,7 +3280,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3295,7 +3300,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3318,7 +3323,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3341,7 +3346,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3364,7 +3369,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3387,7 +3392,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3410,7 +3415,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3433,7 +3438,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3456,7 +3461,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3479,7 +3484,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3519,7 +3524,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3542,7 +3547,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3566,7 +3571,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3589,7 +3594,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3609,7 +3614,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3632,7 +3637,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3655,7 +3660,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3681,7 +3686,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3704,7 +3709,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3724,7 +3729,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3747,7 +3752,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3770,7 +3775,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3793,7 +3798,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3816,7 +3821,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3839,7 +3844,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3862,7 +3867,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3885,7 +3890,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3908,7 +3913,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3931,7 +3936,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3954,7 +3959,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3974,7 +3979,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3997,7 +4002,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4037,7 +4042,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4072,7 +4077,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4095,7 +4100,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4118,7 +4123,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4141,7 +4146,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4164,7 +4169,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4187,7 +4192,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4210,7 +4215,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4230,7 +4235,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4250,7 +4255,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4270,7 +4275,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4293,7 +4298,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4313,7 +4318,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4336,7 +4341,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4356,7 +4361,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4376,7 +4381,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -4388,23 +4393,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -4415,7 +4412,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -4431,13 +4428,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -4448,7 +4445,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -4523,51 +4520,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4575,30 +4569,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff1c1d1e"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1D1E"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -4797,7 +4841,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4816,7 +4860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4846,7 +4890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4872,7 +4916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4898,7 +4942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4924,7 +4968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4950,7 +4994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4976,7 +5020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5002,7 +5046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5028,7 +5072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5054,7 +5098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5067,9 +5111,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -5086,7 +5136,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5105,7 +5155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5131,7 +5181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5157,7 +5207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5183,7 +5233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5209,7 +5259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5235,7 +5285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5261,7 +5311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5287,7 +5337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5313,7 +5363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5339,7 +5389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5352,9 +5402,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -5368,7 +5424,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5387,7 +5443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5417,7 +5473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5443,7 +5499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5469,7 +5525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5495,7 +5551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5521,7 +5577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5547,7 +5603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5573,7 +5629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5599,7 +5655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5625,7 +5681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5638,3816 +5694,3817 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F180"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.8359" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.17188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4453" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6172" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.3438" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+    </row>
+    <row r="2" spans="1:6" ht="327.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="327.2" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="B2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="261" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
         <v>2022</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="261" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="404" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
         <v>2022</v>
       </c>
-      <c r="C4" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="404" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="s" s="8">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="10">
+    </row>
+    <row r="5" spans="1:6" ht="162" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="162" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="B5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="294" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
         <v>2021</v>
       </c>
-      <c r="C6" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="294" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9">
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="283" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8">
         <v>2021</v>
       </c>
-      <c r="C7" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="283" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9">
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="305" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8">
         <v>2021</v>
       </c>
-      <c r="C8" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s" s="10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="305" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9">
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8">
         <v>2021</v>
       </c>
-      <c r="C9" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s" s="10">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="63" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="9">
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="283" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="8">
         <v>2021</v>
       </c>
-      <c r="C10" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="283" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="C10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="9">
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="360" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8">
         <v>2021</v>
       </c>
-      <c r="C11" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s" s="10">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="360" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="9">
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="393" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="8">
         <v>2021</v>
       </c>
-      <c r="C12" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" ht="393" customHeight="1">
-      <c r="A13" t="s" s="8">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="9">
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="327" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8">
         <v>2021</v>
       </c>
-      <c r="C13" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" ht="327" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="s" s="8">
+      <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s" s="10">
+      <c r="E13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="F13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F14" t="s" s="10">
+    </row>
+    <row r="14" spans="1:6" ht="382" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" ht="382" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="B14" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="9">
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="195" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="8">
         <v>2020</v>
       </c>
-      <c r="C15" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" ht="195" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="9">
+      <c r="D15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="206" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8">
         <v>2020</v>
       </c>
-      <c r="C16" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" ht="206" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="9">
+      <c r="E16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="294" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8">
         <v>2020</v>
       </c>
-      <c r="C17" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s" s="11">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" ht="294" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="C17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="9">
+      <c r="D17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="239" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="8">
         <v>2020</v>
       </c>
-      <c r="C18" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="239" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="C18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="9">
+      <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="151" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="8">
         <v>2020</v>
       </c>
-      <c r="C19" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" ht="151" customHeight="1">
-      <c r="A20" t="s" s="8">
+      <c r="C19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="9">
+      <c r="D19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="107" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8">
         <v>2020</v>
       </c>
-      <c r="C20" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" ht="107" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="C20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="9">
+      <c r="D20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="206" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="8">
         <v>2020</v>
       </c>
-      <c r="C21" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="206" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="C21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C22" t="s" s="8">
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s" s="10">
+      <c r="E21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E22" t="s" s="11">
+      <c r="F21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F22" t="s" s="10">
+    </row>
+    <row r="22" spans="1:6" ht="250" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" ht="250" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="B22" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="9">
+      <c r="D22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="327" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="8">
         <v>2019</v>
       </c>
-      <c r="C23" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s" s="11">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="327" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="C23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="9">
+      <c r="D23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="327" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="8">
         <v>2019</v>
       </c>
-      <c r="C24" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="E24" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" ht="327" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="C24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="9">
+      <c r="D24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="184" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="8">
         <v>2019</v>
       </c>
-      <c r="C25" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="D25" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s" s="11">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" ht="184" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="C25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="9">
+      <c r="D25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="217" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="8">
         <v>2019</v>
       </c>
-      <c r="C26" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="F26" t="s" s="10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" ht="217" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="C26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="9">
+      <c r="D26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="349" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="8">
         <v>2019</v>
       </c>
-      <c r="C27" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" ht="349" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="C27" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="9">
+      <c r="D27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="228" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="8">
         <v>2019</v>
       </c>
-      <c r="C28" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="D28" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="E28" t="s" s="11">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" ht="228" customHeight="1">
-      <c r="A29" t="s" s="8">
+      <c r="C28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="9">
+      <c r="D28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="92" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="8">
         <v>2019</v>
       </c>
-      <c r="C29" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="D29" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="E29" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" ht="92.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="C29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="9">
+      <c r="D29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="162" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="8">
         <v>2019</v>
       </c>
-      <c r="C30" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="D30" t="s" s="10">
+      <c r="C30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="173" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="195" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="294" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="74" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="393" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="261" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="283" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.6" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="239" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="250" customHeight="1">
+      <c r="A40" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="173" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="173" customHeight="1">
+      <c r="A42" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="318" customHeight="1">
+      <c r="A43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="118" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="195" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="151" customHeight="1">
+      <c r="A46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="382" customHeight="1">
+      <c r="A47" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="305" customHeight="1">
+      <c r="A48" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="217" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="151" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="217" customHeight="1">
+      <c r="A51" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="261" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="206" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="294" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="206" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="184" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="360" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="239" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="228" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="409.6" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="250" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="371" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="261" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="294" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="151" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="338" customHeight="1">
+      <c r="A66" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="349" customHeight="1">
+      <c r="A67" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="184" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="151" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="239" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="129" customHeight="1">
+      <c r="A71" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="294" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="173" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="382" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="283" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="217" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="228" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="228" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B78" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="360" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="327" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="261" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="327" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="250" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="250" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="250" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B85" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="217" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="338" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="228" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="305" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="261" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B90" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="85" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="239" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="217" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="80" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B94" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E30" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" ht="162" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="B31" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C31" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="D31" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="E31" t="s" s="11">
-        <v>149</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" ht="173" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="B32" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="D32" t="s" s="10">
-        <v>153</v>
-      </c>
-      <c r="E32" t="s" s="11">
-        <v>154</v>
-      </c>
-      <c r="F32" t="s" s="10">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" ht="195" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="B33" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s" s="11">
-        <v>159</v>
-      </c>
-      <c r="F33" t="s" s="10">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" ht="294" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>161</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C34" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="D34" t="s" s="10">
-        <v>163</v>
-      </c>
-      <c r="E34" t="s" s="11">
-        <v>164</v>
-      </c>
-      <c r="F34" t="s" s="10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" ht="74" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="B35" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C35" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D35" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="E35" t="s" s="11">
-        <v>169</v>
-      </c>
-      <c r="F35" t="s" s="10">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" ht="393" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="B36" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C36" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="D36" t="s" s="10">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s" s="11">
-        <v>174</v>
-      </c>
-      <c r="F36" t="s" s="10">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" ht="261" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>176</v>
-      </c>
-      <c r="B37" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C37" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="D37" t="s" s="10">
-        <v>178</v>
-      </c>
-      <c r="E37" t="s" s="11">
-        <v>179</v>
-      </c>
-      <c r="F37" t="s" s="10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" ht="283" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="B38" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C38" t="s" s="8">
-        <v>182</v>
-      </c>
-      <c r="D38" t="s" s="10">
-        <v>183</v>
-      </c>
-      <c r="E38" t="s" s="11">
-        <v>184</v>
-      </c>
-      <c r="F38" t="s" s="10">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" ht="536" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>186</v>
-      </c>
-      <c r="B39" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="D39" t="s" s="10">
-        <v>188</v>
-      </c>
-      <c r="E39" t="s" s="11">
-        <v>189</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" ht="239" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="B40" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C40" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="D40" t="s" s="10">
-        <v>193</v>
-      </c>
-      <c r="E40" t="s" s="11">
-        <v>194</v>
-      </c>
-      <c r="F40" t="s" s="10">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" ht="250" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="B41" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C41" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="D41" t="s" s="10">
-        <v>197</v>
-      </c>
-      <c r="E41" t="s" s="11">
-        <v>198</v>
-      </c>
-      <c r="F41" t="s" s="10">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" ht="173" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="B42" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C42" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="D42" t="s" s="10">
-        <v>202</v>
-      </c>
-      <c r="E42" t="s" s="11">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s" s="10">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" ht="173" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>205</v>
-      </c>
-      <c r="B43" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C43" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="D43" t="s" s="10">
-        <v>207</v>
-      </c>
-      <c r="E43" t="s" s="11">
-        <v>203</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" ht="318.05" customHeight="1">
-      <c r="A44" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="B44" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C44" t="s" s="8">
-        <v>209</v>
-      </c>
-      <c r="D44" t="s" s="10">
-        <v>210</v>
-      </c>
-      <c r="E44" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="F44" t="s" s="10">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" ht="118" customHeight="1">
-      <c r="A45" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="B45" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C45" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="D45" t="s" s="10">
-        <v>215</v>
-      </c>
-      <c r="E45" t="s" s="11">
-        <v>216</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" ht="195" customHeight="1">
-      <c r="A46" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C46" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s" s="10">
-        <v>219</v>
-      </c>
-      <c r="E46" t="s" s="11">
-        <v>220</v>
-      </c>
-      <c r="F46" t="s" s="10">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" ht="151" customHeight="1">
-      <c r="A47" t="s" s="8">
-        <v>222</v>
-      </c>
-      <c r="B47" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D47" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="E47" t="s" s="11">
-        <v>224</v>
-      </c>
-      <c r="F47" t="s" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" ht="382" customHeight="1">
-      <c r="A48" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="B48" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C48" t="s" s="8">
-        <v>227</v>
-      </c>
-      <c r="D48" t="s" s="10">
-        <v>228</v>
-      </c>
-      <c r="E48" t="s" s="11">
-        <v>229</v>
-      </c>
-      <c r="F48" t="s" s="10">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" ht="305" customHeight="1">
-      <c r="A49" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="B49" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C49" t="s" s="8">
-        <v>232</v>
-      </c>
-      <c r="D49" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="E49" t="s" s="11">
-        <v>234</v>
-      </c>
-      <c r="F49" t="s" s="10">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" ht="217" customHeight="1">
-      <c r="A50" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="B50" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C50" t="s" s="8">
-        <v>237</v>
-      </c>
-      <c r="D50" t="s" s="10">
-        <v>238</v>
-      </c>
-      <c r="E50" t="s" s="11">
-        <v>239</v>
-      </c>
-      <c r="F50" t="s" s="10">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" ht="151" customHeight="1">
-      <c r="A51" t="s" s="8">
-        <v>241</v>
-      </c>
-      <c r="B51" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C51" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="D51" t="s" s="10">
-        <v>243</v>
-      </c>
-      <c r="E51" t="s" s="11">
-        <v>244</v>
-      </c>
-      <c r="F51" t="s" s="10">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" ht="217" customHeight="1">
-      <c r="A52" t="s" s="8">
-        <v>246</v>
-      </c>
-      <c r="B52" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C52" t="s" s="8">
-        <v>247</v>
-      </c>
-      <c r="D52" t="s" s="10">
-        <v>248</v>
-      </c>
-      <c r="E52" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="F52" t="s" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" ht="261" customHeight="1">
-      <c r="A53" t="s" s="8">
-        <v>251</v>
-      </c>
-      <c r="B53" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C53" t="s" s="8">
-        <v>252</v>
-      </c>
-      <c r="D53" t="s" s="10">
-        <v>253</v>
-      </c>
-      <c r="E53" t="s" s="11">
-        <v>254</v>
-      </c>
-      <c r="F53" t="s" s="10">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" ht="206" customHeight="1">
-      <c r="A54" t="s" s="8">
-        <v>256</v>
-      </c>
-      <c r="B54" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C54" t="s" s="8">
-        <v>257</v>
-      </c>
-      <c r="D54" t="s" s="10">
-        <v>258</v>
-      </c>
-      <c r="E54" t="s" s="11">
-        <v>259</v>
-      </c>
-      <c r="F54" t="s" s="10">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" ht="294" customHeight="1">
-      <c r="A55" t="s" s="8">
-        <v>261</v>
-      </c>
-      <c r="B55" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C55" t="s" s="8">
-        <v>262</v>
-      </c>
-      <c r="D55" t="s" s="10">
-        <v>263</v>
-      </c>
-      <c r="E55" t="s" s="11">
-        <v>264</v>
-      </c>
-      <c r="F55" t="s" s="10">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" ht="206" customHeight="1">
-      <c r="A56" t="s" s="8">
-        <v>266</v>
-      </c>
-      <c r="B56" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C56" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s" s="10">
-        <v>267</v>
-      </c>
-      <c r="E56" t="s" s="11">
-        <v>268</v>
-      </c>
-      <c r="F56" t="s" s="10">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" ht="184" customHeight="1">
-      <c r="A57" t="s" s="8">
-        <v>270</v>
-      </c>
-      <c r="B57" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C57" t="s" s="8">
-        <v>271</v>
-      </c>
-      <c r="D57" t="s" s="10">
-        <v>272</v>
-      </c>
-      <c r="E57" t="s" s="11">
-        <v>273</v>
-      </c>
-      <c r="F57" t="s" s="10">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" ht="360" customHeight="1">
-      <c r="A58" t="s" s="8">
-        <v>275</v>
-      </c>
-      <c r="B58" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C58" t="s" s="8">
-        <v>276</v>
-      </c>
-      <c r="D58" t="s" s="10">
-        <v>277</v>
-      </c>
-      <c r="E58" t="s" s="11">
-        <v>278</v>
-      </c>
-      <c r="F58" t="s" s="10">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" ht="239" customHeight="1">
-      <c r="A59" t="s" s="8">
-        <v>280</v>
-      </c>
-      <c r="B59" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C59" t="s" s="8">
-        <v>281</v>
-      </c>
-      <c r="D59" t="s" s="10">
-        <v>282</v>
-      </c>
-      <c r="E59" t="s" s="11">
-        <v>283</v>
-      </c>
-      <c r="F59" t="s" s="10">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" ht="228" customHeight="1">
-      <c r="A60" t="s" s="8">
-        <v>285</v>
-      </c>
-      <c r="B60" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C60" t="s" s="8">
-        <v>286</v>
-      </c>
-      <c r="D60" t="s" s="10">
-        <v>287</v>
-      </c>
-      <c r="E60" t="s" s="11">
-        <v>288</v>
-      </c>
-      <c r="F60" t="s" s="10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" ht="415" customHeight="1">
-      <c r="A61" t="s" s="8">
-        <v>290</v>
-      </c>
-      <c r="B61" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C61" t="s" s="8">
-        <v>291</v>
-      </c>
-      <c r="D61" t="s" s="10">
-        <v>292</v>
-      </c>
-      <c r="E61" t="s" s="11">
-        <v>293</v>
-      </c>
-      <c r="F61" t="s" s="10">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" ht="250" customHeight="1">
-      <c r="A62" t="s" s="8">
-        <v>295</v>
-      </c>
-      <c r="B62" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C62" t="s" s="8">
-        <v>296</v>
-      </c>
-      <c r="D62" t="s" s="10">
-        <v>297</v>
-      </c>
-      <c r="E62" t="s" s="11">
-        <v>298</v>
-      </c>
-      <c r="F62" t="s" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" ht="371" customHeight="1">
-      <c r="A63" t="s" s="8">
-        <v>300</v>
-      </c>
-      <c r="B63" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C63" t="s" s="8">
-        <v>301</v>
-      </c>
-      <c r="D63" t="s" s="10">
-        <v>302</v>
-      </c>
-      <c r="E63" t="s" s="11">
-        <v>303</v>
-      </c>
-      <c r="F63" t="s" s="10">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" ht="261" customHeight="1">
-      <c r="A64" t="s" s="8">
-        <v>305</v>
-      </c>
-      <c r="B64" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C64" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D64" t="s" s="10">
-        <v>306</v>
-      </c>
-      <c r="E64" t="s" s="11">
-        <v>307</v>
-      </c>
-      <c r="F64" t="s" s="10">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="65" ht="294" customHeight="1">
-      <c r="A65" t="s" s="8">
-        <v>309</v>
-      </c>
-      <c r="B65" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C65" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="D65" t="s" s="10">
-        <v>310</v>
-      </c>
-      <c r="E65" t="s" s="11">
-        <v>311</v>
-      </c>
-      <c r="F65" t="s" s="10">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="66" ht="151" customHeight="1">
-      <c r="A66" t="s" s="8">
-        <v>313</v>
-      </c>
-      <c r="B66" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C66" t="s" s="8">
-        <v>314</v>
-      </c>
-      <c r="D66" t="s" s="10">
-        <v>315</v>
-      </c>
-      <c r="E66" t="s" s="11">
-        <v>316</v>
-      </c>
-      <c r="F66" t="s" s="10">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" ht="338" customHeight="1">
-      <c r="A67" t="s" s="8">
-        <v>318</v>
-      </c>
-      <c r="B67" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C67" t="s" s="8">
-        <v>319</v>
-      </c>
-      <c r="D67" t="s" s="10">
-        <v>320</v>
-      </c>
-      <c r="E67" t="s" s="11">
-        <v>321</v>
-      </c>
-      <c r="F67" t="s" s="10">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" ht="349" customHeight="1">
-      <c r="A68" t="s" s="8">
-        <v>323</v>
-      </c>
-      <c r="B68" s="9">
-        <v>2017</v>
-      </c>
-      <c r="C68" t="s" s="8">
-        <v>324</v>
-      </c>
-      <c r="D68" t="s" s="10">
-        <v>325</v>
-      </c>
-      <c r="E68" t="s" s="11">
-        <v>326</v>
-      </c>
-      <c r="F68" t="s" s="10">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" ht="184" customHeight="1">
-      <c r="A69" t="s" s="8">
-        <v>328</v>
-      </c>
-      <c r="B69" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C69" t="s" s="8">
-        <v>271</v>
-      </c>
-      <c r="D69" t="s" s="10">
-        <v>329</v>
-      </c>
-      <c r="E69" t="s" s="11">
-        <v>273</v>
-      </c>
-      <c r="F69" t="s" s="10">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" ht="151" customHeight="1">
-      <c r="A70" t="s" s="8">
-        <v>331</v>
-      </c>
-      <c r="B70" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C70" t="s" s="8">
-        <v>332</v>
-      </c>
-      <c r="D70" t="s" s="10">
-        <v>333</v>
-      </c>
-      <c r="E70" t="s" s="11">
-        <v>334</v>
-      </c>
-      <c r="F70" t="s" s="10">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="71" ht="239" customHeight="1">
-      <c r="A71" t="s" s="8">
-        <v>336</v>
-      </c>
-      <c r="B71" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C71" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="D71" t="s" s="10">
-        <v>337</v>
-      </c>
-      <c r="E71" t="s" s="11">
-        <v>338</v>
-      </c>
-      <c r="F71" t="s" s="10">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" ht="129" customHeight="1">
-      <c r="A72" t="s" s="8">
-        <v>340</v>
-      </c>
-      <c r="B72" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C72" t="s" s="8">
-        <v>341</v>
-      </c>
-      <c r="D72" t="s" s="10">
-        <v>342</v>
-      </c>
-      <c r="E72" t="s" s="11">
-        <v>343</v>
-      </c>
-      <c r="F72" t="s" s="10">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" ht="294" customHeight="1">
-      <c r="A73" t="s" s="8">
-        <v>345</v>
-      </c>
-      <c r="B73" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C73" t="s" s="8">
-        <v>346</v>
-      </c>
-      <c r="D73" t="s" s="10">
-        <v>347</v>
-      </c>
-      <c r="E73" t="s" s="11">
-        <v>348</v>
-      </c>
-      <c r="F73" t="s" s="10">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="74" ht="173" customHeight="1">
-      <c r="A74" t="s" s="8">
-        <v>350</v>
-      </c>
-      <c r="B74" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>351</v>
-      </c>
-      <c r="D74" t="s" s="10">
-        <v>352</v>
-      </c>
-      <c r="E74" t="s" s="11">
-        <v>353</v>
-      </c>
-      <c r="F74" t="s" s="10">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" ht="382" customHeight="1">
-      <c r="A75" t="s" s="8">
-        <v>355</v>
-      </c>
-      <c r="B75" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C75" t="s" s="8">
-        <v>356</v>
-      </c>
-      <c r="D75" t="s" s="10">
-        <v>357</v>
-      </c>
-      <c r="E75" t="s" s="11">
-        <v>358</v>
-      </c>
-      <c r="F75" t="s" s="10">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" ht="283" customHeight="1">
-      <c r="A76" t="s" s="8">
-        <v>360</v>
-      </c>
-      <c r="B76" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C76" t="s" s="8">
-        <v>361</v>
-      </c>
-      <c r="D76" t="s" s="10">
-        <v>362</v>
-      </c>
-      <c r="E76" t="s" s="11">
-        <v>363</v>
-      </c>
-      <c r="F76" t="s" s="10">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="77" ht="217" customHeight="1">
-      <c r="A77" t="s" s="8">
-        <v>365</v>
-      </c>
-      <c r="B77" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C77" t="s" s="8">
-        <v>366</v>
-      </c>
-      <c r="D77" t="s" s="10">
-        <v>367</v>
-      </c>
-      <c r="E77" t="s" s="11">
-        <v>368</v>
-      </c>
-      <c r="F77" t="s" s="10">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="78" ht="228" customHeight="1">
-      <c r="A78" t="s" s="8">
-        <v>370</v>
-      </c>
-      <c r="B78" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C78" t="s" s="8">
-        <v>371</v>
-      </c>
-      <c r="D78" t="s" s="10">
-        <v>372</v>
-      </c>
-      <c r="E78" t="s" s="11">
-        <v>373</v>
-      </c>
-      <c r="F78" t="s" s="10">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="79" ht="228" customHeight="1">
-      <c r="A79" t="s" s="8">
-        <v>375</v>
-      </c>
-      <c r="B79" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>376</v>
-      </c>
-      <c r="D79" t="s" s="10">
-        <v>377</v>
-      </c>
-      <c r="E79" t="s" s="11">
-        <v>378</v>
-      </c>
-      <c r="F79" t="s" s="10">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" ht="360" customHeight="1">
-      <c r="A80" t="s" s="8">
-        <v>380</v>
-      </c>
-      <c r="B80" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C80" t="s" s="8">
-        <v>381</v>
-      </c>
-      <c r="D80" t="s" s="10">
-        <v>382</v>
-      </c>
-      <c r="E80" t="s" s="11">
-        <v>383</v>
-      </c>
-      <c r="F80" t="s" s="10">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" ht="327" customHeight="1">
-      <c r="A81" t="s" s="8">
-        <v>385</v>
-      </c>
-      <c r="B81" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C81" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s" s="10">
-        <v>386</v>
-      </c>
-      <c r="E81" t="s" s="11">
-        <v>387</v>
-      </c>
-      <c r="F81" t="s" s="10">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="82" ht="261" customHeight="1">
-      <c r="A82" t="s" s="8">
-        <v>389</v>
-      </c>
-      <c r="B82" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C82" t="s" s="8">
-        <v>390</v>
-      </c>
-      <c r="D82" t="s" s="10">
-        <v>391</v>
-      </c>
-      <c r="E82" t="s" s="11">
-        <v>392</v>
-      </c>
-      <c r="F82" t="s" s="10">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" ht="327" customHeight="1">
-      <c r="A83" t="s" s="8">
+      <c r="F94" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="80" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="217" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B83" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>395</v>
-      </c>
-      <c r="D83" t="s" s="10">
-        <v>396</v>
-      </c>
-      <c r="E83" t="s" s="11">
-        <v>397</v>
-      </c>
-      <c r="F83" t="s" s="10">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" ht="250" customHeight="1">
-      <c r="A84" t="s" s="8">
-        <v>399</v>
-      </c>
-      <c r="B84" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C84" t="s" s="8">
-        <v>400</v>
-      </c>
-      <c r="D84" t="s" s="10">
-        <v>401</v>
-      </c>
-      <c r="E84" t="s" s="11">
-        <v>402</v>
-      </c>
-      <c r="F84" t="s" s="10">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" ht="250" customHeight="1">
-      <c r="A85" t="s" s="8">
-        <v>404</v>
-      </c>
-      <c r="B85" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C85" t="s" s="8">
-        <v>405</v>
-      </c>
-      <c r="D85" t="s" s="10">
-        <v>406</v>
-      </c>
-      <c r="E85" t="s" s="11">
-        <v>407</v>
-      </c>
-      <c r="F85" t="s" s="10">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="86" ht="250" customHeight="1">
-      <c r="A86" t="s" s="8">
-        <v>409</v>
-      </c>
-      <c r="B86" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C86" t="s" s="8">
-        <v>410</v>
-      </c>
-      <c r="D86" t="s" s="10">
-        <v>411</v>
-      </c>
-      <c r="E86" t="s" s="11">
-        <v>412</v>
-      </c>
-      <c r="F86" t="s" s="10">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" ht="217" customHeight="1">
-      <c r="A87" t="s" s="8">
-        <v>414</v>
-      </c>
-      <c r="B87" s="9">
+      <c r="D96" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="173" customHeight="1">
+      <c r="A97" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="8">
         <v>2015</v>
       </c>
-      <c r="C87" t="s" s="8">
-        <v>415</v>
-      </c>
-      <c r="D87" t="s" s="10">
-        <v>416</v>
-      </c>
-      <c r="E87" t="s" s="11">
-        <v>417</v>
-      </c>
-      <c r="F87" t="s" s="10">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="88" ht="338.05" customHeight="1">
-      <c r="A88" t="s" s="8">
+      <c r="C97" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="404" customHeight="1">
+      <c r="A98" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="316" customHeight="1">
+      <c r="A99" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="239" customHeight="1">
+      <c r="A100" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B100" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="140" customHeight="1">
+      <c r="A101" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B88" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C88" t="s" s="8">
-        <v>420</v>
-      </c>
-      <c r="D88" t="s" s="10">
-        <v>421</v>
-      </c>
-      <c r="E88" t="s" s="12">
-        <v>422</v>
-      </c>
-      <c r="F88" t="s" s="10">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" ht="228" customHeight="1">
-      <c r="A89" t="s" s="8">
-        <v>424</v>
-      </c>
-      <c r="B89" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C89" t="s" s="8">
-        <v>425</v>
-      </c>
-      <c r="D89" t="s" s="10">
-        <v>426</v>
-      </c>
-      <c r="E89" t="s" s="11">
-        <v>427</v>
-      </c>
-      <c r="F89" t="s" s="10">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="90" ht="305" customHeight="1">
-      <c r="A90" t="s" s="8">
-        <v>429</v>
-      </c>
-      <c r="B90" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C90" t="s" s="8">
-        <v>430</v>
-      </c>
-      <c r="D90" t="s" s="10">
-        <v>431</v>
-      </c>
-      <c r="E90" t="s" s="11">
-        <v>432</v>
-      </c>
-      <c r="F90" t="s" s="10">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="91" ht="261" customHeight="1">
-      <c r="A91" t="s" s="8">
-        <v>434</v>
-      </c>
-      <c r="B91" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C91" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D91" t="s" s="10">
-        <v>435</v>
-      </c>
-      <c r="E91" t="s" s="11">
-        <v>436</v>
-      </c>
-      <c r="F91" t="s" s="10">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="92" ht="85" customHeight="1">
-      <c r="A92" t="s" s="8">
-        <v>438</v>
-      </c>
-      <c r="B92" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C92" t="s" s="8">
-        <v>400</v>
-      </c>
-      <c r="D92" t="s" s="10">
-        <v>439</v>
-      </c>
-      <c r="E92" t="s" s="11">
-        <v>440</v>
-      </c>
-      <c r="F92" t="s" s="10">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" ht="239" customHeight="1">
-      <c r="A93" t="s" s="8">
-        <v>442</v>
-      </c>
-      <c r="B93" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>443</v>
-      </c>
-      <c r="D93" t="s" s="10">
-        <v>444</v>
-      </c>
-      <c r="E93" t="s" s="11">
-        <v>445</v>
-      </c>
-      <c r="F93" t="s" s="10">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="94" ht="217" customHeight="1">
-      <c r="A94" t="s" s="8">
-        <v>447</v>
-      </c>
-      <c r="B94" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C94" t="s" s="8">
-        <v>448</v>
-      </c>
-      <c r="D94" t="s" s="10">
-        <v>449</v>
-      </c>
-      <c r="E94" t="s" s="11">
-        <v>450</v>
-      </c>
-      <c r="F94" t="s" s="10">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="95" ht="80.05" customHeight="1">
-      <c r="A95" t="s" s="8">
-        <v>452</v>
-      </c>
-      <c r="B95" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C95" t="s" s="8">
-        <v>453</v>
-      </c>
-      <c r="D95" t="s" s="10">
-        <v>454</v>
-      </c>
-      <c r="E95" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F95" t="s" s="10">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="96" ht="80.05" customHeight="1">
-      <c r="A96" t="s" s="8">
-        <v>456</v>
-      </c>
-      <c r="B96" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C96" t="s" s="8">
-        <v>457</v>
-      </c>
-      <c r="D96" t="s" s="10">
-        <v>458</v>
-      </c>
-      <c r="E96" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F96" t="s" s="10">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="97" ht="217" customHeight="1">
-      <c r="A97" t="s" s="8">
-        <v>460</v>
-      </c>
-      <c r="B97" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C97" t="s" s="8">
-        <v>395</v>
-      </c>
-      <c r="D97" t="s" s="10">
-        <v>461</v>
-      </c>
-      <c r="E97" t="s" s="11">
-        <v>462</v>
-      </c>
-      <c r="F97" t="s" s="10">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="98" ht="173" customHeight="1">
-      <c r="A98" t="s" s="8">
-        <v>464</v>
-      </c>
-      <c r="B98" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C98" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D98" t="s" s="10">
-        <v>465</v>
-      </c>
-      <c r="E98" t="s" s="11">
-        <v>466</v>
-      </c>
-      <c r="F98" t="s" s="10">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="99" ht="404" customHeight="1">
-      <c r="A99" t="s" s="8">
-        <v>468</v>
-      </c>
-      <c r="B99" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C99" t="s" s="8">
-        <v>469</v>
-      </c>
-      <c r="D99" t="s" s="10">
-        <v>470</v>
-      </c>
-      <c r="E99" t="s" s="11">
-        <v>471</v>
-      </c>
-      <c r="F99" t="s" s="10">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" ht="316" customHeight="1">
-      <c r="A100" t="s" s="8">
-        <v>473</v>
-      </c>
-      <c r="B100" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C100" t="s" s="8">
-        <v>474</v>
-      </c>
-      <c r="D100" t="s" s="10">
-        <v>475</v>
-      </c>
-      <c r="E100" t="s" s="11">
-        <v>476</v>
-      </c>
-      <c r="F100" t="s" s="10">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" ht="239" customHeight="1">
-      <c r="A101" t="s" s="8">
-        <v>478</v>
-      </c>
-      <c r="B101" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C101" t="s" s="8">
-        <v>479</v>
-      </c>
-      <c r="D101" t="s" s="10">
-        <v>480</v>
-      </c>
-      <c r="E101" t="s" s="11">
-        <v>481</v>
-      </c>
-      <c r="F101" t="s" s="10">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="102" ht="140" customHeight="1">
-      <c r="A102" t="s" s="8">
+      <c r="D101" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="B102" s="9">
+      <c r="E101" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="92" customHeight="1">
+      <c r="A102" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B102" s="8">
         <v>2014</v>
       </c>
-      <c r="C102" t="s" s="8">
-        <v>420</v>
-      </c>
-      <c r="D102" t="s" s="10">
-        <v>484</v>
-      </c>
-      <c r="E102" t="s" s="11">
-        <v>485</v>
-      </c>
-      <c r="F102" t="s" s="10">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="103" ht="92.05" customHeight="1">
-      <c r="A103" t="s" s="8">
+      <c r="C102" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B103" s="9">
+      <c r="D102" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="250" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B103" s="8">
         <v>2014</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>488</v>
-      </c>
-      <c r="D103" t="s" s="10">
-        <v>489</v>
-      </c>
-      <c r="E103" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F103" t="s" s="10">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="104" ht="250" customHeight="1">
-      <c r="A104" t="s" s="8">
+      <c r="C103" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B104" s="9">
+      <c r="D103" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="294" customHeight="1">
+      <c r="A104" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B104" s="8">
         <v>2014</v>
       </c>
-      <c r="C104" t="s" s="8">
-        <v>492</v>
-      </c>
-      <c r="D104" t="s" s="10">
-        <v>493</v>
-      </c>
-      <c r="E104" t="s" s="11">
-        <v>494</v>
-      </c>
-      <c r="F104" t="s" s="10">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="105" ht="294" customHeight="1">
-      <c r="A105" t="s" s="8">
+      <c r="C104" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B105" s="9">
+      <c r="D104" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="162" customHeight="1">
+      <c r="A105" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B105" s="8">
         <v>2014</v>
       </c>
-      <c r="C105" t="s" s="8">
-        <v>497</v>
-      </c>
-      <c r="D105" t="s" s="10">
-        <v>498</v>
-      </c>
-      <c r="E105" t="s" s="11">
-        <v>499</v>
-      </c>
-      <c r="F105" t="s" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="106" ht="162" customHeight="1">
-      <c r="A106" t="s" s="8">
+      <c r="C105" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B106" s="9">
+      <c r="D105" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="272" customHeight="1">
+      <c r="A106" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B106" s="8">
         <v>2014</v>
       </c>
-      <c r="C106" t="s" s="8">
-        <v>502</v>
-      </c>
-      <c r="D106" t="s" s="10">
-        <v>503</v>
-      </c>
-      <c r="E106" t="s" s="11">
-        <v>504</v>
-      </c>
-      <c r="F106" t="s" s="10">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="107" ht="272" customHeight="1">
-      <c r="A107" t="s" s="8">
+      <c r="C106" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B107" s="9">
+      <c r="D106" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="184" customHeight="1">
+      <c r="A107" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B107" s="8">
         <v>2014</v>
       </c>
-      <c r="C107" t="s" s="8">
-        <v>507</v>
-      </c>
-      <c r="D107" t="s" s="10">
-        <v>508</v>
-      </c>
-      <c r="E107" t="s" s="11">
-        <v>509</v>
-      </c>
-      <c r="F107" t="s" s="10">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="108" ht="184" customHeight="1">
-      <c r="A108" t="s" s="8">
+      <c r="C107" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B108" s="9">
+      <c r="D107" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="409.6" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B108" s="8">
         <v>2014</v>
       </c>
-      <c r="C108" t="s" s="8">
-        <v>512</v>
-      </c>
-      <c r="D108" t="s" s="10">
-        <v>513</v>
-      </c>
-      <c r="E108" t="s" s="11">
-        <v>514</v>
-      </c>
-      <c r="F108" t="s" s="10">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="109" ht="591" customHeight="1">
-      <c r="A109" t="s" s="8">
+      <c r="C108" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B109" s="9">
+      <c r="D108" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="250" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B109" s="8">
         <v>2014</v>
       </c>
-      <c r="C109" t="s" s="8">
-        <v>517</v>
-      </c>
-      <c r="D109" t="s" s="10">
-        <v>518</v>
-      </c>
-      <c r="E109" t="s" s="11">
-        <v>519</v>
-      </c>
-      <c r="F109" t="s" s="10">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="110" ht="250" customHeight="1">
-      <c r="A110" t="s" s="8">
+      <c r="C109" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B110" s="9">
+      <c r="D109" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="250" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B110" s="8">
         <v>2014</v>
       </c>
-      <c r="C110" t="s" s="8">
-        <v>522</v>
-      </c>
-      <c r="D110" t="s" s="10">
-        <v>523</v>
-      </c>
-      <c r="E110" t="s" s="11">
-        <v>524</v>
-      </c>
-      <c r="F110" t="s" s="10">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="111" ht="250" customHeight="1">
-      <c r="A111" t="s" s="8">
+      <c r="C110" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B111" s="9">
+      <c r="D110" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="44" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" s="8">
         <v>2014</v>
       </c>
-      <c r="C111" t="s" s="8">
-        <v>527</v>
-      </c>
-      <c r="D111" t="s" s="10">
-        <v>528</v>
-      </c>
-      <c r="E111" t="s" s="11">
-        <v>529</v>
-      </c>
-      <c r="F111" t="s" s="10">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="112" ht="44.05" customHeight="1">
-      <c r="A112" t="s" s="8">
+      <c r="C111" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B112" s="9">
+      <c r="D111" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="250" customHeight="1">
+      <c r="A112" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B112" s="8">
         <v>2014</v>
       </c>
-      <c r="C112" t="s" s="8">
-        <v>532</v>
-      </c>
-      <c r="D112" t="s" s="10">
-        <v>533</v>
-      </c>
-      <c r="E112" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F112" t="s" s="10">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="113" ht="250" customHeight="1">
-      <c r="A113" t="s" s="8">
+      <c r="C112" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B113" s="9">
+      <c r="D112" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="162" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B113" s="8">
         <v>2014</v>
       </c>
-      <c r="C113" t="s" s="8">
-        <v>536</v>
-      </c>
-      <c r="D113" t="s" s="10">
-        <v>537</v>
-      </c>
-      <c r="E113" t="s" s="11">
-        <v>538</v>
-      </c>
-      <c r="F113" t="s" s="10">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="114" ht="162" customHeight="1">
-      <c r="A114" t="s" s="8">
+      <c r="C113" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B114" s="9">
-        <v>2014</v>
-      </c>
-      <c r="C114" t="s" s="8">
-        <v>395</v>
-      </c>
-      <c r="D114" t="s" s="10">
+      <c r="E113" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="E114" t="s" s="11">
+      <c r="F113" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="F114" t="s" s="10">
+    </row>
+    <row r="114" spans="1:6" ht="68" customHeight="1">
+      <c r="A114" s="7" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="115" ht="68.05" customHeight="1">
-      <c r="A115" t="s" s="8">
+      <c r="B114" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B115" s="9">
+      <c r="D114" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="349" customHeight="1">
+      <c r="A115" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B115" s="8">
         <v>2013</v>
       </c>
-      <c r="C115" t="s" s="8">
-        <v>545</v>
-      </c>
-      <c r="D115" t="s" s="10">
-        <v>546</v>
-      </c>
-      <c r="E115" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F115" t="s" s="10">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="116" ht="349" customHeight="1">
-      <c r="A116" t="s" s="8">
+      <c r="C115" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B116" s="9">
+      <c r="D115" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="228" customHeight="1">
+      <c r="A116" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B116" s="8">
         <v>2013</v>
       </c>
-      <c r="C116" t="s" s="8">
-        <v>549</v>
-      </c>
-      <c r="D116" t="s" s="10">
-        <v>550</v>
-      </c>
-      <c r="E116" t="s" s="11">
-        <v>551</v>
-      </c>
-      <c r="F116" t="s" s="10">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="117" ht="228" customHeight="1">
-      <c r="A117" t="s" s="8">
+      <c r="C116" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B117" s="9">
+      <c r="D116" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="294" customHeight="1">
+      <c r="A117" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B117" s="8">
         <v>2013</v>
       </c>
-      <c r="C117" t="s" s="8">
-        <v>554</v>
-      </c>
-      <c r="D117" t="s" s="10">
-        <v>555</v>
-      </c>
-      <c r="E117" t="s" s="11">
-        <v>556</v>
-      </c>
-      <c r="F117" t="s" s="10">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="118" ht="294" customHeight="1">
-      <c r="A118" t="s" s="8">
+      <c r="C117" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B118" s="9">
+      <c r="D117" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="118" customHeight="1">
+      <c r="A118" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B118" s="8">
         <v>2013</v>
       </c>
-      <c r="C118" t="s" s="8">
-        <v>559</v>
-      </c>
-      <c r="D118" t="s" s="10">
-        <v>560</v>
-      </c>
-      <c r="E118" t="s" s="11">
-        <v>561</v>
-      </c>
-      <c r="F118" t="s" s="10">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="119" ht="118" customHeight="1">
-      <c r="A119" t="s" s="8">
+      <c r="C118" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B119" s="9">
+      <c r="D118" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="80" customHeight="1">
+      <c r="A119" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B119" s="8">
         <v>2013</v>
       </c>
-      <c r="C119" t="s" s="8">
-        <v>564</v>
-      </c>
-      <c r="D119" t="s" s="10">
-        <v>565</v>
-      </c>
-      <c r="E119" t="s" s="11">
-        <v>566</v>
-      </c>
-      <c r="F119" t="s" s="10">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="120" ht="80.05" customHeight="1">
-      <c r="A120" t="s" s="8">
+      <c r="C119" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B120" s="9">
+      <c r="D119" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="184" customHeight="1">
+      <c r="A120" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B120" s="8">
         <v>2013</v>
       </c>
-      <c r="C120" t="s" s="8">
-        <v>569</v>
-      </c>
-      <c r="D120" t="s" s="10">
-        <v>570</v>
-      </c>
-      <c r="E120" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F120" t="s" s="10">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="121" ht="184" customHeight="1">
-      <c r="A121" t="s" s="8">
+      <c r="C120" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B121" s="9">
+      <c r="D120" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="74" customHeight="1">
+      <c r="A121" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B121" s="8">
         <v>2013</v>
       </c>
-      <c r="C121" t="s" s="8">
-        <v>573</v>
-      </c>
-      <c r="D121" t="s" s="10">
-        <v>574</v>
-      </c>
-      <c r="E121" t="s" s="11">
-        <v>575</v>
-      </c>
-      <c r="F121" t="s" s="10">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="122" ht="74" customHeight="1">
-      <c r="A122" t="s" s="8">
+      <c r="C121" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B122" s="9">
+      <c r="D121" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="217" customHeight="1">
+      <c r="A122" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B122" s="8">
         <v>2013</v>
       </c>
-      <c r="C122" t="s" s="8">
-        <v>578</v>
-      </c>
-      <c r="D122" t="s" s="10">
-        <v>579</v>
-      </c>
-      <c r="E122" t="s" s="11">
-        <v>580</v>
-      </c>
-      <c r="F122" t="s" s="10">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="123" ht="217" customHeight="1">
-      <c r="A123" t="s" s="8">
+      <c r="C122" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B123" s="9">
-        <v>2013</v>
-      </c>
-      <c r="C123" t="s" s="8">
+      <c r="D122" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D123" t="s" s="10">
+      <c r="E122" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="E123" t="s" s="11">
+      <c r="F122" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F123" t="s" s="10">
+    </row>
+    <row r="123" spans="1:6" ht="162" customHeight="1">
+      <c r="A123" s="7" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="124" ht="162" customHeight="1">
-      <c r="A124" t="s" s="8">
+      <c r="B123" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B124" s="9">
+      <c r="D123" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="68" customHeight="1">
+      <c r="A124" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B124" s="8">
         <v>2012</v>
       </c>
-      <c r="C124" t="s" s="8">
-        <v>588</v>
-      </c>
-      <c r="D124" t="s" s="10">
-        <v>589</v>
-      </c>
-      <c r="E124" t="s" s="11">
-        <v>590</v>
-      </c>
-      <c r="F124" t="s" s="10">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" ht="68.05" customHeight="1">
-      <c r="A125" t="s" s="8">
+      <c r="C124" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B125" s="9">
+      <c r="D124" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="206" customHeight="1">
+      <c r="A125" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B125" s="8">
         <v>2012</v>
       </c>
-      <c r="C125" t="s" s="8">
-        <v>593</v>
-      </c>
-      <c r="D125" t="s" s="10">
-        <v>594</v>
-      </c>
-      <c r="E125" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F125" t="s" s="10">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="126" ht="206" customHeight="1">
-      <c r="A126" t="s" s="8">
+      <c r="C125" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B126" s="9">
+      <c r="D125" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="217" customHeight="1">
+      <c r="A126" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B126" s="8">
         <v>2012</v>
       </c>
-      <c r="C126" t="s" s="8">
-        <v>597</v>
-      </c>
-      <c r="D126" t="s" s="10">
-        <v>598</v>
-      </c>
-      <c r="E126" t="s" s="11">
-        <v>599</v>
-      </c>
-      <c r="F126" t="s" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="127" ht="217" customHeight="1">
-      <c r="A127" t="s" s="8">
+      <c r="C126" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B127" s="9">
+      <c r="D126" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="74" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B127" s="8">
         <v>2012</v>
       </c>
-      <c r="C127" t="s" s="8">
-        <v>602</v>
-      </c>
-      <c r="D127" t="s" s="10">
-        <v>603</v>
-      </c>
-      <c r="E127" t="s" s="11">
-        <v>604</v>
-      </c>
-      <c r="F127" t="s" s="10">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="128" ht="74" customHeight="1">
-      <c r="A128" t="s" s="8">
+      <c r="C127" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B128" s="9">
+      <c r="D127" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="140" customHeight="1">
+      <c r="A128" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B128" s="8">
         <v>2012</v>
       </c>
-      <c r="C128" t="s" s="8">
-        <v>607</v>
-      </c>
-      <c r="D128" t="s" s="10">
-        <v>608</v>
-      </c>
-      <c r="E128" t="s" s="11">
-        <v>609</v>
-      </c>
-      <c r="F128" t="s" s="10">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="129" ht="140" customHeight="1">
-      <c r="A129" t="s" s="8">
+      <c r="C128" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B129" s="9">
+      <c r="D128" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="104" customHeight="1">
+      <c r="A129" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B129" s="8">
         <v>2012</v>
       </c>
-      <c r="C129" t="s" s="8">
-        <v>612</v>
-      </c>
-      <c r="D129" t="s" s="10">
-        <v>613</v>
-      </c>
-      <c r="E129" t="s" s="11">
+      <c r="C129" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="129" customHeight="1">
+      <c r="A130" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B130" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="85" customHeight="1">
+      <c r="A131" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B131" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="228" customHeight="1">
+      <c r="A132" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B132" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="228" customHeight="1">
+      <c r="A133" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B133" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="261" customHeight="1">
+      <c r="A134" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B134" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="316" customHeight="1">
+      <c r="A135" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B135" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="140" customHeight="1">
+      <c r="A136" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B136" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="261" customHeight="1">
+      <c r="A137" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B137" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="206" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="250" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="129" customHeight="1">
+      <c r="A140" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="283" customHeight="1">
+      <c r="A141" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="162" customHeight="1">
+      <c r="A142" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="382" customHeight="1">
+      <c r="A143" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="294" customHeight="1">
+      <c r="A144" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="44" customHeight="1">
+      <c r="A145" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="272" customHeight="1">
+      <c r="A146" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="228" customHeight="1">
+      <c r="A147" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B147" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="261" customHeight="1">
+      <c r="A148" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B148" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="85" customHeight="1">
+      <c r="A149" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B149" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="80" customHeight="1">
+      <c r="A150" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B150" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="173" customHeight="1">
+      <c r="A151" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B151" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="129" customHeight="1">
+      <c r="A152" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B152" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="261" customHeight="1">
+      <c r="A153" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B153" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="228" customHeight="1">
+      <c r="A154" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B154" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="184" customHeight="1">
+      <c r="A155" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B155" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="217" customHeight="1">
+      <c r="A156" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B156" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="294" customHeight="1">
+      <c r="A157" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B157" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="173" customHeight="1">
+      <c r="A158" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B158" s="8">
+        <v>2004</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="151" customHeight="1">
+      <c r="A159" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B159" s="8">
+        <v>2004</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="283" customHeight="1">
+      <c r="A160" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B160" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="68" customHeight="1">
+      <c r="A161" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B161" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="118" customHeight="1">
+      <c r="A162" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B162" s="8">
+        <v>2001</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="206" customHeight="1">
+      <c r="A163" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B163" s="8">
+        <v>2001</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="140" customHeight="1">
+      <c r="A164" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B164" s="8">
+        <v>2001</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="F129" t="s" s="10">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="130" ht="104.05" customHeight="1">
-      <c r="A130" t="s" s="8">
-        <v>616</v>
-      </c>
-      <c r="B130" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C130" t="s" s="8">
-        <v>617</v>
-      </c>
-      <c r="D130" t="s" s="10">
-        <v>618</v>
-      </c>
-      <c r="E130" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F130" t="s" s="10">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="131" ht="129" customHeight="1">
-      <c r="A131" t="s" s="8">
-        <v>620</v>
-      </c>
-      <c r="B131" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C131" t="s" s="8">
-        <v>621</v>
-      </c>
-      <c r="D131" t="s" s="10">
-        <v>622</v>
-      </c>
-      <c r="E131" t="s" s="11">
-        <v>623</v>
-      </c>
-      <c r="F131" t="s" s="10">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="132" ht="85" customHeight="1">
-      <c r="A132" t="s" s="8">
-        <v>625</v>
-      </c>
-      <c r="B132" s="9">
-        <v>2012</v>
-      </c>
-      <c r="C132" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="D132" t="s" s="10">
-        <v>626</v>
-      </c>
-      <c r="E132" t="s" s="11">
-        <v>627</v>
-      </c>
-      <c r="F132" t="s" s="10">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="133" ht="228" customHeight="1">
-      <c r="A133" t="s" s="8">
-        <v>629</v>
-      </c>
-      <c r="B133" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C133" t="s" s="8">
-        <v>630</v>
-      </c>
-      <c r="D133" t="s" s="10">
-        <v>631</v>
-      </c>
-      <c r="E133" t="s" s="11">
-        <v>632</v>
-      </c>
-      <c r="F133" t="s" s="10">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="134" ht="228" customHeight="1">
-      <c r="A134" t="s" s="8">
-        <v>634</v>
-      </c>
-      <c r="B134" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C134" t="s" s="8">
-        <v>635</v>
-      </c>
-      <c r="D134" t="s" s="10">
-        <v>636</v>
-      </c>
-      <c r="E134" t="s" s="11">
-        <v>637</v>
-      </c>
-      <c r="F134" t="s" s="10">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="135" ht="261" customHeight="1">
-      <c r="A135" t="s" s="8">
-        <v>639</v>
-      </c>
-      <c r="B135" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C135" t="s" s="8">
-        <v>640</v>
-      </c>
-      <c r="D135" t="s" s="10">
-        <v>641</v>
-      </c>
-      <c r="E135" t="s" s="11">
-        <v>642</v>
-      </c>
-      <c r="F135" t="s" s="10">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="136" ht="316" customHeight="1">
-      <c r="A136" t="s" s="8">
-        <v>644</v>
-      </c>
-      <c r="B136" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C136" t="s" s="8">
-        <v>645</v>
-      </c>
-      <c r="D136" t="s" s="10">
-        <v>646</v>
-      </c>
-      <c r="E136" t="s" s="11">
-        <v>647</v>
-      </c>
-      <c r="F136" t="s" s="10">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="137" ht="140" customHeight="1">
-      <c r="A137" t="s" s="8">
-        <v>649</v>
-      </c>
-      <c r="B137" s="9">
-        <v>2011</v>
-      </c>
-      <c r="C137" t="s" s="8">
-        <v>650</v>
-      </c>
-      <c r="D137" t="s" s="10">
-        <v>651</v>
-      </c>
-      <c r="E137" t="s" s="11">
-        <v>652</v>
-      </c>
-      <c r="F137" t="s" s="10">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="138" ht="261" customHeight="1">
-      <c r="A138" t="s" s="8">
-        <v>654</v>
-      </c>
-      <c r="B138" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C138" t="s" s="8">
-        <v>655</v>
-      </c>
-      <c r="D138" t="s" s="10">
-        <v>656</v>
-      </c>
-      <c r="E138" t="s" s="11">
-        <v>657</v>
-      </c>
-      <c r="F138" t="s" s="10">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="139" ht="206" customHeight="1">
-      <c r="A139" t="s" s="8">
-        <v>659</v>
-      </c>
-      <c r="B139" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C139" t="s" s="8">
-        <v>660</v>
-      </c>
-      <c r="D139" t="s" s="10">
-        <v>661</v>
-      </c>
-      <c r="E139" t="s" s="11">
-        <v>662</v>
-      </c>
-      <c r="F139" t="s" s="10">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="140" ht="250" customHeight="1">
-      <c r="A140" t="s" s="8">
-        <v>664</v>
-      </c>
-      <c r="B140" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C140" t="s" s="8">
-        <v>665</v>
-      </c>
-      <c r="D140" t="s" s="10">
-        <v>666</v>
-      </c>
-      <c r="E140" t="s" s="11">
-        <v>667</v>
-      </c>
-      <c r="F140" t="s" s="10">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="141" ht="129" customHeight="1">
-      <c r="A141" t="s" s="8">
-        <v>669</v>
-      </c>
-      <c r="B141" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C141" t="s" s="8">
-        <v>670</v>
-      </c>
-      <c r="D141" t="s" s="10">
-        <v>671</v>
-      </c>
-      <c r="E141" t="s" s="11">
-        <v>672</v>
-      </c>
-      <c r="F141" t="s" s="10">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" ht="283" customHeight="1">
-      <c r="A142" t="s" s="8">
-        <v>673</v>
-      </c>
-      <c r="B142" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C142" t="s" s="8">
-        <v>674</v>
-      </c>
-      <c r="D142" t="s" s="10">
-        <v>675</v>
-      </c>
-      <c r="E142" t="s" s="11">
-        <v>676</v>
-      </c>
-      <c r="F142" t="s" s="10">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="143" ht="162" customHeight="1">
-      <c r="A143" t="s" s="8">
-        <v>678</v>
-      </c>
-      <c r="B143" s="9">
-        <v>2010</v>
-      </c>
-      <c r="C143" t="s" s="8">
-        <v>679</v>
-      </c>
-      <c r="D143" t="s" s="10">
-        <v>680</v>
-      </c>
-      <c r="E143" t="s" s="11">
-        <v>681</v>
-      </c>
-      <c r="F143" t="s" s="10">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="144" ht="382" customHeight="1">
-      <c r="A144" t="s" s="8">
-        <v>683</v>
-      </c>
-      <c r="B144" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C144" t="s" s="8">
-        <v>684</v>
-      </c>
-      <c r="D144" t="s" s="10">
-        <v>685</v>
-      </c>
-      <c r="E144" t="s" s="11">
-        <v>686</v>
-      </c>
-      <c r="F144" t="s" s="10">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="145" ht="294" customHeight="1">
-      <c r="A145" t="s" s="8">
-        <v>688</v>
-      </c>
-      <c r="B145" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C145" t="s" s="8">
-        <v>689</v>
-      </c>
-      <c r="D145" t="s" s="10">
-        <v>690</v>
-      </c>
-      <c r="E145" t="s" s="11">
-        <v>691</v>
-      </c>
-      <c r="F145" t="s" s="10">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="146" ht="44.05" customHeight="1">
-      <c r="A146" t="s" s="8">
-        <v>693</v>
-      </c>
-      <c r="B146" s="9">
-        <v>2009</v>
-      </c>
-      <c r="C146" t="s" s="8">
-        <v>694</v>
-      </c>
-      <c r="D146" t="s" s="10">
-        <v>695</v>
-      </c>
-      <c r="E146" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F146" t="s" s="10">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="147" ht="272" customHeight="1">
-      <c r="A147" t="s" s="8">
-        <v>697</v>
-      </c>
-      <c r="B147" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C147" t="s" s="8">
-        <v>698</v>
-      </c>
-      <c r="D147" t="s" s="10">
-        <v>699</v>
-      </c>
-      <c r="E147" t="s" s="11">
-        <v>700</v>
-      </c>
-      <c r="F147" t="s" s="10">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="148" ht="228" customHeight="1">
-      <c r="A148" t="s" s="8">
-        <v>702</v>
-      </c>
-      <c r="B148" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C148" t="s" s="8">
-        <v>703</v>
-      </c>
-      <c r="D148" t="s" s="10">
-        <v>704</v>
-      </c>
-      <c r="E148" t="s" s="11">
-        <v>705</v>
-      </c>
-      <c r="F148" t="s" s="10">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="149" ht="261" customHeight="1">
-      <c r="A149" t="s" s="8">
-        <v>707</v>
-      </c>
-      <c r="B149" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C149" t="s" s="8">
-        <v>708</v>
-      </c>
-      <c r="D149" t="s" s="10">
-        <v>709</v>
-      </c>
-      <c r="E149" t="s" s="11">
-        <v>710</v>
-      </c>
-      <c r="F149" t="s" s="10">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="150" ht="85" customHeight="1">
-      <c r="A150" t="s" s="8">
-        <v>712</v>
-      </c>
-      <c r="B150" s="9">
-        <v>2008</v>
-      </c>
-      <c r="C150" t="s" s="8">
-        <v>713</v>
-      </c>
-      <c r="D150" t="s" s="10">
-        <v>714</v>
-      </c>
-      <c r="E150" t="s" s="11">
-        <v>715</v>
-      </c>
-      <c r="F150" t="s" s="10">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="151" ht="80.05" customHeight="1">
-      <c r="A151" t="s" s="8">
-        <v>717</v>
-      </c>
-      <c r="B151" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C151" t="s" s="8">
-        <v>718</v>
-      </c>
-      <c r="D151" t="s" s="10">
-        <v>719</v>
-      </c>
-      <c r="E151" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F151" t="s" s="10">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="152" ht="173" customHeight="1">
-      <c r="A152" t="s" s="8">
-        <v>721</v>
-      </c>
-      <c r="B152" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C152" t="s" s="8">
-        <v>722</v>
-      </c>
-      <c r="D152" t="s" s="10">
-        <v>723</v>
-      </c>
-      <c r="E152" t="s" s="11">
-        <v>724</v>
-      </c>
-      <c r="F152" t="s" s="10">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="153" ht="129" customHeight="1">
-      <c r="A153" t="s" s="8">
-        <v>726</v>
-      </c>
-      <c r="B153" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C153" t="s" s="8">
-        <v>727</v>
-      </c>
-      <c r="D153" t="s" s="10">
-        <v>728</v>
-      </c>
-      <c r="E153" t="s" s="11">
-        <v>729</v>
-      </c>
-      <c r="F153" t="s" s="10">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="154" ht="261" customHeight="1">
-      <c r="A154" t="s" s="8">
-        <v>731</v>
-      </c>
-      <c r="B154" s="9">
-        <v>2007</v>
-      </c>
-      <c r="C154" t="s" s="8">
-        <v>732</v>
-      </c>
-      <c r="D154" t="s" s="10">
-        <v>733</v>
-      </c>
-      <c r="E154" t="s" s="11">
-        <v>734</v>
-      </c>
-      <c r="F154" t="s" s="10">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="155" ht="228" customHeight="1">
-      <c r="A155" t="s" s="8">
-        <v>736</v>
-      </c>
-      <c r="B155" s="9">
-        <v>2006</v>
-      </c>
-      <c r="C155" t="s" s="8">
-        <v>737</v>
-      </c>
-      <c r="D155" t="s" s="10">
-        <v>738</v>
-      </c>
-      <c r="E155" t="s" s="11">
-        <v>739</v>
-      </c>
-      <c r="F155" t="s" s="10">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="156" ht="184" customHeight="1">
-      <c r="A156" t="s" s="8">
-        <v>741</v>
-      </c>
-      <c r="B156" s="9">
-        <v>2006</v>
-      </c>
-      <c r="C156" t="s" s="8">
-        <v>742</v>
-      </c>
-      <c r="D156" t="s" s="10">
-        <v>743</v>
-      </c>
-      <c r="E156" t="s" s="11">
-        <v>744</v>
-      </c>
-      <c r="F156" t="s" s="10">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="157" ht="217" customHeight="1">
-      <c r="A157" t="s" s="8">
-        <v>746</v>
-      </c>
-      <c r="B157" s="9">
-        <v>2006</v>
-      </c>
-      <c r="C157" t="s" s="8">
-        <v>747</v>
-      </c>
-      <c r="D157" t="s" s="10">
-        <v>748</v>
-      </c>
-      <c r="E157" t="s" s="11">
-        <v>749</v>
-      </c>
-      <c r="F157" t="s" s="10">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="158" ht="294" customHeight="1">
-      <c r="A158" t="s" s="8">
-        <v>751</v>
-      </c>
-      <c r="B158" s="9">
-        <v>2006</v>
-      </c>
-      <c r="C158" t="s" s="8">
-        <v>752</v>
-      </c>
-      <c r="D158" t="s" s="10">
-        <v>753</v>
-      </c>
-      <c r="E158" t="s" s="11">
-        <v>754</v>
-      </c>
-      <c r="F158" t="s" s="10">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="159" ht="173" customHeight="1">
-      <c r="A159" t="s" s="8">
-        <v>756</v>
-      </c>
-      <c r="B159" s="9">
-        <v>2004</v>
-      </c>
-      <c r="C159" t="s" s="8">
-        <v>757</v>
-      </c>
-      <c r="D159" t="s" s="10">
-        <v>758</v>
-      </c>
-      <c r="E159" t="s" s="11">
-        <v>759</v>
-      </c>
-      <c r="F159" t="s" s="10">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="160" ht="151" customHeight="1">
-      <c r="A160" t="s" s="8">
-        <v>761</v>
-      </c>
-      <c r="B160" s="9">
-        <v>2004</v>
-      </c>
-      <c r="C160" t="s" s="8">
-        <v>762</v>
-      </c>
-      <c r="D160" t="s" s="10">
-        <v>763</v>
-      </c>
-      <c r="E160" t="s" s="11">
-        <v>764</v>
-      </c>
-      <c r="F160" t="s" s="10">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="161" ht="283" customHeight="1">
-      <c r="A161" t="s" s="8">
-        <v>766</v>
-      </c>
-      <c r="B161" s="9">
-        <v>2003</v>
-      </c>
-      <c r="C161" t="s" s="8">
-        <v>767</v>
-      </c>
-      <c r="D161" t="s" s="10">
-        <v>768</v>
-      </c>
-      <c r="E161" t="s" s="11">
-        <v>769</v>
-      </c>
-      <c r="F161" t="s" s="10">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="162" ht="68.05" customHeight="1">
-      <c r="A162" t="s" s="8">
-        <v>771</v>
-      </c>
-      <c r="B162" s="9">
-        <v>2003</v>
-      </c>
-      <c r="C162" t="s" s="8">
-        <v>772</v>
-      </c>
-      <c r="D162" t="s" s="10">
-        <v>773</v>
-      </c>
-      <c r="E162" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F162" t="s" s="10">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="163" ht="118" customHeight="1">
-      <c r="A163" t="s" s="8">
-        <v>775</v>
-      </c>
-      <c r="B163" s="9">
-        <v>2001</v>
-      </c>
-      <c r="C163" t="s" s="8">
-        <v>776</v>
-      </c>
-      <c r="D163" t="s" s="10">
-        <v>777</v>
-      </c>
-      <c r="E163" t="s" s="11">
-        <v>778</v>
-      </c>
-      <c r="F163" t="s" s="10">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="164" ht="206" customHeight="1">
-      <c r="A164" t="s" s="8">
-        <v>780</v>
-      </c>
-      <c r="B164" s="9">
-        <v>2001</v>
-      </c>
-      <c r="C164" t="s" s="8">
-        <v>781</v>
-      </c>
-      <c r="D164" t="s" s="10">
-        <v>782</v>
-      </c>
-      <c r="E164" t="s" s="11">
-        <v>783</v>
-      </c>
-      <c r="F164" t="s" s="10">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="165" ht="140" customHeight="1">
-      <c r="A165" t="s" s="8">
-        <v>785</v>
-      </c>
-      <c r="B165" s="9">
-        <v>2001</v>
-      </c>
-      <c r="C165" t="s" s="8">
-        <v>786</v>
-      </c>
-      <c r="D165" t="s" s="10">
-        <v>787</v>
-      </c>
-      <c r="E165" t="s" s="11">
+    </row>
+    <row r="165" spans="1:6" ht="107" customHeight="1">
+      <c r="A165" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="F165" t="s" s="10">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="166" ht="107" customHeight="1">
-      <c r="A166" t="s" s="8">
+      <c r="B165" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B166" s="9">
+      <c r="D165" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="250" customHeight="1">
+      <c r="A166" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B166" s="8">
         <v>2000</v>
       </c>
-      <c r="C166" t="s" s="8">
-        <v>790</v>
-      </c>
-      <c r="D166" t="s" s="10">
-        <v>791</v>
-      </c>
-      <c r="E166" t="s" s="11">
-        <v>792</v>
-      </c>
-      <c r="F166" t="s" s="10">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="167" ht="250" customHeight="1">
-      <c r="A167" t="s" s="8">
+      <c r="C166" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="B167" s="9">
-        <v>2000</v>
-      </c>
-      <c r="C167" t="s" s="8">
+      <c r="D166" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="D167" t="s" s="10">
+      <c r="E166" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="E167" t="s" s="11">
+      <c r="F166" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="F167" t="s" s="10">
+    </row>
+    <row r="167" spans="1:6" ht="85" customHeight="1">
+      <c r="A167" s="7" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="168" ht="85" customHeight="1">
-      <c r="A168" t="s" s="8">
+      <c r="B167" s="8">
+        <v>1999</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="B168" s="9">
-        <v>1999</v>
-      </c>
-      <c r="C168" t="s" s="8">
+      <c r="D167" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="D168" t="s" s="10">
+      <c r="E167" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="E168" t="s" s="11">
+      <c r="F167" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="F168" t="s" s="10">
+    </row>
+    <row r="168" spans="1:6" ht="85" customHeight="1">
+      <c r="A168" s="7" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="169" ht="85" customHeight="1">
-      <c r="A169" t="s" s="8">
+      <c r="B168" s="8">
+        <v>1997</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="B169" s="9">
-        <v>1997</v>
-      </c>
-      <c r="C169" t="s" s="8">
+      <c r="D168" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="D169" t="s" s="10">
+      <c r="E168" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="E169" t="s" s="11">
+      <c r="F168" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="F169" t="s" s="10">
+    </row>
+    <row r="169" spans="1:6" ht="228" customHeight="1">
+      <c r="A169" s="7" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="170" ht="228" customHeight="1">
-      <c r="A170" t="s" s="8">
+      <c r="B169" s="8">
+        <v>1995</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="B170" s="9">
-        <v>1995</v>
-      </c>
-      <c r="C170" t="s" s="8">
+      <c r="D169" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="D170" t="s" s="10">
+      <c r="E169" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="E170" t="s" s="11">
+      <c r="F169" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="F170" t="s" s="10">
+    </row>
+    <row r="170" spans="1:6" ht="305" customHeight="1">
+      <c r="A170" s="7" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="171" ht="305" customHeight="1">
-      <c r="A171" t="s" s="8">
+      <c r="B170" s="8">
+        <v>1994</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B171" s="9">
-        <v>1994</v>
-      </c>
-      <c r="C171" t="s" s="8">
+      <c r="D170" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="D171" t="s" s="10">
+      <c r="E170" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="E171" t="s" s="11">
+      <c r="F170" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="F171" t="s" s="10">
+    </row>
+    <row r="171" spans="1:6" ht="217" customHeight="1">
+      <c r="A171" s="7" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="172" ht="217" customHeight="1">
-      <c r="A172" t="s" s="8">
+      <c r="B171" s="8">
+        <v>1992</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="B172" s="9">
+      <c r="D171" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="32" customHeight="1">
+      <c r="A172" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B172" s="8">
         <v>1992</v>
       </c>
-      <c r="C172" t="s" s="8">
-        <v>820</v>
-      </c>
-      <c r="D172" t="s" s="10">
-        <v>821</v>
-      </c>
-      <c r="E172" t="s" s="11">
-        <v>822</v>
-      </c>
-      <c r="F172" t="s" s="10">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="173" ht="32.05" customHeight="1">
-      <c r="A173" t="s" s="8">
+      <c r="C172" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="B173" s="9">
-        <v>1992</v>
-      </c>
-      <c r="C173" t="s" s="8">
+      <c r="D172" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="D173" t="s" s="10">
+      <c r="E172" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="E173" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F173" t="s" s="10">
+    </row>
+    <row r="173" spans="1:6" ht="44" customHeight="1">
+      <c r="A173" s="7" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="174" ht="44.05" customHeight="1">
-      <c r="A174" t="s" s="8">
+      <c r="B173" s="8">
+        <v>1986</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="B174" s="9">
-        <v>1986</v>
-      </c>
-      <c r="C174" t="s" s="8">
+      <c r="D173" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="D174" t="s" s="10">
+      <c r="E173" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="E174" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F174" t="s" s="10">
+    </row>
+    <row r="174" spans="1:6" ht="44" customHeight="1">
+      <c r="A174" s="7" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="175" ht="44.05" customHeight="1">
-      <c r="A175" t="s" s="8">
+      <c r="B174" s="8">
+        <v>1982</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="B175" s="9">
-        <v>1982</v>
-      </c>
-      <c r="C175" t="s" s="8">
+      <c r="D174" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="D175" t="s" s="10">
+      <c r="E174" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="E175" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F175" t="s" s="10">
+    </row>
+    <row r="175" spans="1:6" ht="151" customHeight="1">
+      <c r="A175" s="7" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="176" ht="151" customHeight="1">
-      <c r="A176" t="s" s="8">
+      <c r="B175" s="8">
+        <v>1976</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="B176" s="9">
-        <v>1976</v>
-      </c>
-      <c r="C176" t="s" s="8">
+      <c r="D175" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D176" t="s" s="10">
+      <c r="E175" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="E176" t="s" s="11">
+      <c r="F175" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="F176" t="s" s="10">
+    </row>
+    <row r="176" spans="1:6" ht="20" customHeight="1">
+      <c r="A176" s="7" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="177" ht="20.05" customHeight="1">
-      <c r="A177" t="s" s="8">
+      <c r="B176" s="8">
+        <v>1974</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="B177" s="9">
-        <v>1974</v>
-      </c>
-      <c r="C177" t="s" s="8">
+      <c r="D176" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="D177" t="s" s="10">
+      <c r="E176" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="E177" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F177" t="s" s="10">
+    </row>
+    <row r="177" spans="1:6" ht="349" customHeight="1">
+      <c r="A177" s="7" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="178" ht="349" customHeight="1">
-      <c r="A178" t="s" s="8">
+      <c r="B177" s="8">
+        <v>1963</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="B178" s="9">
-        <v>1963</v>
-      </c>
-      <c r="C178" t="s" s="8">
+      <c r="D177" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="D178" t="s" s="10">
+      <c r="E177" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="E178" t="s" s="11">
+      <c r="F177" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="F178" t="s" s="10">
+    </row>
+    <row r="178" spans="1:6" ht="44" customHeight="1">
+      <c r="A178" s="7" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="179" ht="44.05" customHeight="1">
-      <c r="A179" t="s" s="8">
+      <c r="B178" s="8">
+        <v>1956</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B179" s="9">
-        <v>1956</v>
-      </c>
-      <c r="C179" t="s" s="8">
+      <c r="D178" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="D179" t="s" s="10">
+      <c r="E178" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="E179" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F179" t="s" s="10">
+    </row>
+    <row r="179" spans="1:6" ht="32" customHeight="1">
+      <c r="A179" s="7" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="180" ht="32.05" customHeight="1">
-      <c r="A180" t="s" s="8">
+      <c r="B179" s="8">
+        <v>1953</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="B180" s="9">
-        <v>1953</v>
-      </c>
-      <c r="C180" t="s" s="8">
+      <c r="D179" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="D180" t="s" s="10">
+      <c r="E179" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="E180" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="F180" t="s" s="10">
-        <v>857</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9732968"/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/full/10.1002/smr.2398"/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display="https://peerj.com/articles/cs-833/"/>
-    <hyperlink ref="F6" r:id="rId4" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9426715"/>
-    <hyperlink ref="E7" r:id="rId5" location="" tooltip="" display="https://github.com/S2-group/ATDx"/>
-    <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="https://www.researchgate.net/profile/Roberto-Verdecchia/publication/353411185_ATDx_A_tool_for_Providing_a_Data-driven_Overview_of_Architectural_Technical_Debt_in_Software-intensive_Systems/links/60fac6130c2bfa282af72655/ATDx-A-tool-for-Providing-a-Data-driven-Overview-of-Architectural-Technical-Debt-in-Software-intensive-Systems.pdf"/>
-    <hyperlink ref="F8" r:id="rId7" location="" tooltip="" display="https://arxiv.org/abs/2112.01644"/>
-    <hyperlink ref="F9" r:id="rId8" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121221000650"/>
-    <hyperlink ref="F10" r:id="rId9" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9509940"/>
-    <hyperlink ref="F11" r:id="rId10" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9582573"/>
-    <hyperlink ref="F12" r:id="rId11" location="" tooltip="" display="http://200.144.93.16/bitstream/handle/11600/61800/RodrigoAvancini_DissertacaoMestrado_UNIFESP.pdf?sequence=1&amp;isAllowed=y"/>
-    <hyperlink ref="F13" r:id="rId12" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121221000224"/>
-    <hyperlink ref="F14" r:id="rId13" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9508122"/>
-    <hyperlink ref="F15" r:id="rId14" location="" tooltip="" display="https://yadda.icm.edu.pl/baztech/element/bwmeta1.element.baztech-bed61889-8adb-4503-943d-dec871dbe4ac"/>
-    <hyperlink ref="F16" r:id="rId15" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-59155-7_1"/>
-    <hyperlink ref="F17" r:id="rId16" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-58858-8_20"/>
-    <hyperlink ref="F18" r:id="rId17" location="" tooltip="" display="https://link.springer.com/article/10.1007/s10664-020-09847-2"/>
-    <hyperlink ref="F19" r:id="rId18" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-58923-3_14"/>
-    <hyperlink ref="F20" r:id="rId19" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/9197979"/>
-    <hyperlink ref="F21" r:id="rId20" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3387906.3388633"/>
-    <hyperlink ref="F22" r:id="rId21" location="" tooltip="" display="https://www.scitepress.org/Papers/2020/95778/95778.pdf"/>
-    <hyperlink ref="F23" r:id="rId22" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8785983"/>
-    <hyperlink ref="F24" r:id="rId23" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8704965"/>
-    <hyperlink ref="F25" r:id="rId24" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/300046"/>
-    <hyperlink ref="F26" r:id="rId25" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8613009"/>
-    <hyperlink ref="F27" r:id="rId26" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/abs/10.1002/9781119513957.ch4"/>
-    <hyperlink ref="F28" r:id="rId27" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8919247"/>
-    <hyperlink ref="F29" r:id="rId28" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786037"/>
-    <hyperlink ref="F30" r:id="rId29" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=R3qSDwAAQBAJ&amp;oi=fnd&amp;pg=PT15&amp;dq=Managing+Technical+Debt:+Reducing+Friction+in+Software+Development&amp;ots=fplJY-lUlS&amp;sig=0mCG9EfAXGT3XiZAfDzA4Vq094E&amp;redir_esc=y#v=onepage&amp;q=Managing%20Technical%20Debt%3A%20Reducing%20Friction%20in%20Software%20Development&amp;f=false"/>
-    <hyperlink ref="F31" r:id="rId30" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8785058"/>
-    <hyperlink ref="F32" r:id="rId31" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786002"/>
-    <hyperlink ref="F33" r:id="rId32" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8919109"/>
-    <hyperlink ref="F34" r:id="rId33" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8952512"/>
-    <hyperlink ref="F35" r:id="rId34" location="" tooltip="" display="https://www.torrossa.com/en/resources/an/5241725"/>
-    <hyperlink ref="F36" r:id="rId35" location="" tooltip="" display="https://link.springer.com/article/10.1186/s13173-018-0083-1"/>
-    <hyperlink ref="F37" r:id="rId36" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8786030"/>
-    <hyperlink ref="F38" r:id="rId37" location="" tooltip="" display="https://scholar.archive.org/work/oianpmu6i5cw5bhcrtwds7rabm/access/wayback/https://open.library.ubc.ca/media/download/pdf/24/1.0372145/3"/>
-    <hyperlink ref="F39" r:id="rId38" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S095058491630355X"/>
-    <hyperlink ref="F40" r:id="rId39" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8498239"/>
-    <hyperlink ref="F41" r:id="rId40" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121217302121"/>
-    <hyperlink ref="F42" r:id="rId41" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-00761-4_21"/>
-    <hyperlink ref="F43" r:id="rId42" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-030-00761-4_21"/>
-    <hyperlink ref="F44" r:id="rId43" location="" tooltip="" display="https://link.springer.com/article/10.1007/s10664-017-9540-2"/>
-    <hyperlink ref="F45" r:id="rId44" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8543428"/>
-    <hyperlink ref="F46" r:id="rId45" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8748406"/>
-    <hyperlink ref="F47" r:id="rId46" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8411742"/>
-    <hyperlink ref="F48" r:id="rId47" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584918300326"/>
-    <hyperlink ref="F49" r:id="rId48" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584918300946"/>
-    <hyperlink ref="F50" r:id="rId49" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8330205"/>
-    <hyperlink ref="F51" r:id="rId50" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8498241"/>
-    <hyperlink ref="E52" r:id="rId51" location="" tooltip="" display="https://github.com/ishepard/pydriller"/>
-    <hyperlink ref="F52" r:id="rId52" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3236024.3264598"/>
-    <hyperlink ref="F53" r:id="rId53" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8595095"/>
-    <hyperlink ref="F54" r:id="rId54" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/253719"/>
-    <hyperlink ref="F55" r:id="rId55" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/3084100.3084105"/>
-    <hyperlink ref="F56" r:id="rId56" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7958479"/>
-    <hyperlink ref="F57" r:id="rId57" location="" tooltip="" display="http://repositorio.ulasalle.edu.pe/handle/20.500.12953/62"/>
-    <hyperlink ref="F58" r:id="rId58" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584917300472"/>
-    <hyperlink ref="F59" r:id="rId59" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8122569"/>
-    <hyperlink ref="F60" r:id="rId60" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7958506"/>
-    <hyperlink ref="F61" r:id="rId61" location="" tooltip="" display="http://repositorio.utfpr.edu.br/jspui/handle/1/6027"/>
-    <hyperlink ref="F62" r:id="rId62" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121216301558"/>
-    <hyperlink ref="F63" r:id="rId63" location="" tooltip="" display="https://link.springer.com/article/10.1007/s10664-016-9491-z"/>
-    <hyperlink ref="F64" r:id="rId64" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/full/10.1002/smr.1877"/>
-    <hyperlink ref="F65" r:id="rId65" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8051360"/>
-    <hyperlink ref="F66" r:id="rId66" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8051378"/>
-    <hyperlink ref="F67" r:id="rId67" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/8094405"/>
-    <hyperlink ref="F68" r:id="rId68" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121217300663"/>
-    <hyperlink ref="F69" r:id="rId69" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7520104"/>
-    <hyperlink ref="F70" r:id="rId70" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7816489"/>
-    <hyperlink ref="F71" r:id="rId71" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7886928"/>
-    <hyperlink ref="F72" r:id="rId72" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2851613.2851963"/>
-    <hyperlink ref="F73" r:id="rId73" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2851613.2851786"/>
-    <hyperlink ref="F74" r:id="rId74" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7725232"/>
-    <hyperlink ref="F75" r:id="rId75" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584915001743"/>
-    <hyperlink ref="F76" r:id="rId76" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7776447"/>
-    <hyperlink ref="F77" r:id="rId77" location="" tooltip="" display="https://link.springer.com/article/10.1007/s10664-014-9351-7"/>
-    <hyperlink ref="F78" r:id="rId78" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-319-49094-6_24"/>
-    <hyperlink ref="F79" r:id="rId79" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7725230"/>
-    <hyperlink ref="F80" r:id="rId80" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2961111.2962636"/>
-    <hyperlink ref="F81" r:id="rId81" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7883286"/>
-    <hyperlink ref="F82" r:id="rId82" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7592783"/>
-    <hyperlink ref="F83" r:id="rId83" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/B9780128023013000053"/>
-    <hyperlink ref="F84" r:id="rId84" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7577432"/>
-    <hyperlink ref="F85" r:id="rId85" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S016412121630053X"/>
-    <hyperlink ref="F86" r:id="rId86" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121216300826"/>
-    <hyperlink ref="F87" r:id="rId87" location="" tooltip="" display="https://odr.chalmers.se/handle/20.500.12380/219830"/>
-    <hyperlink ref="F88" r:id="rId88" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584915001287"/>
-    <hyperlink ref="F89" r:id="rId89" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7379167"/>
-    <hyperlink ref="F90" r:id="rId90" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121214002854"/>
-    <hyperlink ref="F91" r:id="rId91" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7158498"/>
-    <hyperlink ref="F92" r:id="rId92" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7367984"/>
-    <hyperlink ref="F93" r:id="rId93" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7202962"/>
-    <hyperlink ref="F94" r:id="rId94" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7224477"/>
-    <hyperlink ref="F95" r:id="rId95" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=0yxBBAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Research+Methods:+The+Essential+Knowledge+Base&amp;ots=AFzQRcRIf-&amp;sig=mAziIAxo34qWmGEzB5f1vWCfyS0&amp;redir_esc=y#v=onepage&amp;q=Research%20Methods%3A%20The%20Essential%20Knowledge%20Base&amp;f=false"/>
-    <hyperlink ref="F96" r:id="rId96" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=3wrwCQAAQBAJ&amp;oi=fnd&amp;pg=PT15&amp;dq=Applied+regression+analysis+and+generalized+linear+models&amp;ots=3AasCdxgak&amp;sig=GipCu6icU16wsROc7JplgFi3wYQ&amp;redir_esc=y#v=onepage&amp;q=Applied%20regression%20analysis%20and%20generalized%20linear%20models&amp;f=false"/>
-    <hyperlink ref="F97" r:id="rId97" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7158505"/>
-    <hyperlink ref="F98" r:id="rId98" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7302484"/>
-    <hyperlink ref="F99" r:id="rId99" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0950584915000762"/>
-    <hyperlink ref="F100" r:id="rId100" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/7332622"/>
-    <hyperlink ref="F101" r:id="rId101" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2786805.2786848"/>
-    <hyperlink ref="F102" r:id="rId102" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6928795"/>
-    <hyperlink ref="F103" r:id="rId103" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=1SaOAwAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Refactoring+for+software+design+smells:+managing+technical+debt&amp;ots=Oxf1DF3yIc&amp;sig=FMPq9k5BYWA5xatE3LWqRkwom0I&amp;redir_esc=y#v=onepage&amp;q=Refactoring%20for%20software%20design%20smells%3A%20managing%20technical%20debt&amp;f=false"/>
-    <hyperlink ref="F104" r:id="rId104" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6747165"/>
-    <hyperlink ref="F105" r:id="rId105" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6976075"/>
-    <hyperlink ref="E106" r:id="rId106" location="" tooltip="" display="https://art.cs.drexel.edu/~lx52/titan.mp4"/>
-    <hyperlink ref="F106" r:id="rId107" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2635868.2661677"/>
-    <hyperlink ref="F107" r:id="rId108" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2597073.2597078"/>
-    <hyperlink ref="F108" r:id="rId109" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2597073.2597111"/>
-    <hyperlink ref="F109" r:id="rId110" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121214000831"/>
-    <hyperlink ref="F110" r:id="rId111" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6974888"/>
-    <hyperlink ref="F111" r:id="rId112" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6824100"/>
-    <hyperlink ref="F112" r:id="rId113" location="" tooltip="" display="https://www.ssoar.info/ssoar/bitstream/handle/document/39517/ssoar-2014-mayring-Qualitative_content_analysis_theoretical_foundation.pdf"/>
-    <hyperlink ref="F113" r:id="rId114" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/2602576.2602581"/>
-    <hyperlink ref="F114" r:id="rId115" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/B978012410464800009X"/>
-    <hyperlink ref="F115" r:id="rId116" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=9VefO7a8GeAC&amp;oi=fnd&amp;pg=PT13&amp;dq=Statistical+methods+for+rates+and+proportions&amp;ots=pr4iKGtyDV&amp;sig=A7p3ZRHLBq99r4A-3lq3NwLZY50&amp;redir_esc=y#v=onepage&amp;q=Statistical%20methods%20for%20rates%20and%20proportions&amp;f=false"/>
-    <hyperlink ref="F116" r:id="rId117" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0164121213000022"/>
-    <hyperlink ref="F117" r:id="rId118" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6624048"/>
-    <hyperlink ref="F118" r:id="rId119" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6608672"/>
-    <hyperlink ref="F119" r:id="rId120" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-319-40162-1_50"/>
-    <hyperlink ref="F120" r:id="rId121" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=DXtFAQAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Handbook+of+univariate+and+multivariate+data+analysis+with+IBM+SPSS&amp;ots=5q0nWXJ5NT&amp;sig=3GhnixfTwUC2ysE_1O8NBXTipbE&amp;redir_esc=y#v=onepage&amp;q=Handbook%20of%20univariate%20and%20multivariate%20data%20analysis%20with%20IBM%20SPSS&amp;f=false"/>
-    <hyperlink ref="F121" r:id="rId122" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6614739"/>
-    <hyperlink ref="F122" r:id="rId123" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6612893"/>
-    <hyperlink ref="F123" r:id="rId124" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/full/10.1002/smr.1549"/>
-    <hyperlink ref="F124" r:id="rId125" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6336723"/>
-    <hyperlink ref="F125" r:id="rId126" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=QPVsM1_U8nkC&amp;oi=fnd&amp;pg=PR5&amp;dq=Experimentation+in+software+engineering&amp;ots=GPy6s8jPuq&amp;sig=0wu53PncmrPsbH5riKIgbGL6E9I&amp;redir_esc=y#v=onepage&amp;q=Experimentation%20in%20software%20engineering&amp;f=false"/>
-    <hyperlink ref="F126" r:id="rId127" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6337765"/>
-    <hyperlink ref="F127" r:id="rId128" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6224285"/>
-    <hyperlink ref="F128" r:id="rId129" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6336724"/>
-    <hyperlink ref="F129" r:id="rId130" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/914732"/>
-    <hyperlink ref="F130" r:id="rId131" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=T7rXoaxqPIAC&amp;oi=fnd&amp;pg=PT8&amp;dq=Case+Study+Research+in+Software+Engineering:+Guidelines+and+Examples&amp;ots=bcBrvcEazM&amp;sig=0YJQ2wxNXjbZFKR6sc-hS9Z0zZM&amp;redir_esc=y#v=onepage&amp;q=Case%20Study%20Research%20in%20Software%20Engineering%3A%20Guidelines%20and%20Examples&amp;f=false"/>
-    <hyperlink ref="F131" r:id="rId132" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6280547"/>
-    <hyperlink ref="F132" r:id="rId133" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6336722"/>
-    <hyperlink ref="F133" r:id="rId134" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6032465"/>
-    <hyperlink ref="F134" r:id="rId135" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/5741254"/>
-    <hyperlink ref="F135" r:id="rId136" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1985362.1985371"/>
-    <hyperlink ref="F136" r:id="rId137" location="" tooltip="" display="https://www.sciencedirect.com/science/article/abs/pii/B9780123855121000025"/>
-    <hyperlink ref="F137" r:id="rId138" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1985362.1985370"/>
-    <hyperlink ref="F138" r:id="rId139" location="" tooltip="" display="https://journals.sagepub.com/doi/abs/10.3141/2146-10"/>
-    <hyperlink ref="F139" r:id="rId140" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1882362.1882373"/>
-    <hyperlink ref="F140" r:id="rId141" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/5463348"/>
-    <hyperlink ref="F142" r:id="rId142" location="" tooltip="" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wics.84"/>
-    <hyperlink ref="F143" r:id="rId143" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/5485839"/>
-    <hyperlink ref="F144" r:id="rId144" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1536616.1536648"/>
-    <hyperlink ref="F145" r:id="rId145" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/6062253"/>
-    <hyperlink ref="F146" r:id="rId146" location="" tooltip="" display="https://www.scirp.org/html/779.html"/>
-    <hyperlink ref="F147" r:id="rId147" location="" tooltip="" display="https://www.scienceopen.com/hosted-document?doi=10.14236/ewic/EASE2008.8"/>
-    <hyperlink ref="F148" r:id="rId148" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/4659248"/>
-    <hyperlink ref="F149" r:id="rId149" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/full/10.1111/j.1365-2648.2007.04569.x"/>
-    <hyperlink ref="F150" r:id="rId150" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1370175.1370188"/>
-    <hyperlink ref="F151" r:id="rId151" location="" tooltip="" display="https://www.researchgate.net/profile/Barbara-Kitchenham/publication/302924724_Guidelines_for_performing_Systematic_Literature_Reviews_in_Software_Engineering/links/61712932766c4a211c03a6f7/Guidelines-for-performing-Systematic-Literature-Reviews-in-Software-Engineering.pdf"/>
-    <hyperlink ref="F152" r:id="rId152" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/4228651"/>
-    <hyperlink ref="F153" r:id="rId153" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1234772.1234790"/>
-    <hyperlink ref="F154" r:id="rId154" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/4299835"/>
-    <hyperlink ref="F155" r:id="rId155" location="" tooltip="" display="https://link.springer.com/article/10.1007/s00766-005-0021-6"/>
-    <hyperlink ref="F156" r:id="rId156" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/1602379"/>
-    <hyperlink ref="F157" r:id="rId157" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/1138506.1138523"/>
-    <hyperlink ref="F158" r:id="rId158" location="" tooltip="" display="https://onlinelibrary.wiley.com/doi/abs/10.1002/spip.249"/>
-    <hyperlink ref="F159" r:id="rId159" location="" tooltip="" display="https://europepmc.org/article/med/15141602"/>
-    <hyperlink ref="F160" r:id="rId160" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/1357812"/>
-    <hyperlink ref="F161" r:id="rId161" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/1205177"/>
-    <hyperlink ref="F162" r:id="rId162" location="" tooltip="" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=mdiIu8Kk1WMC&amp;oi=fnd&amp;pg=PA1&amp;dq=Software+architecture+in+practice&amp;ots=UfO2T3f9LN&amp;sig=Y4AkjvP2B8GvLyREPTyKVekyhoE&amp;redir_esc=y#v=onepage&amp;q=Software%20architecture%20in%20practice&amp;f=false"/>
-    <hyperlink ref="F163" r:id="rId163" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/914734"/>
-    <hyperlink ref="F164" r:id="rId164" location="" tooltip="" display="http://www.ifs.tuwien.ac.at/~mlanzenberger/teaching/ps/ws08/stuff/00963283.pdf"/>
-    <hyperlink ref="F165" r:id="rId165" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/914732"/>
-    <hyperlink ref="F166" r:id="rId166" location="" tooltip="" display="https://link.springer.com/chapter/10.1007/978-3-7091-6783-0_4"/>
-    <hyperlink ref="F167" r:id="rId167" location="" tooltip="" display="https://pubsonline.informs.org/doi/abs/10.1287/mnsc.46.4.451.12056"/>
-    <hyperlink ref="F168" r:id="rId168" location="" tooltip="" display="https://drum.lib.umd.edu/handle/1903/370"/>
-    <hyperlink ref="F169" r:id="rId169" location="" tooltip="" display="https://europepmc.org/article/med/27285770"/>
-    <hyperlink ref="F170" r:id="rId170" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/496964"/>
-    <hyperlink ref="F171" r:id="rId171" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/295895"/>
-    <hyperlink ref="F172" r:id="rId172" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.1145/141874.141884"/>
-    <hyperlink ref="F173" r:id="rId173" location="" tooltip="" display="https://dl.acm.org/doi/pdf/10.1145/157710.157715"/>
-    <hyperlink ref="F174" r:id="rId174" location="" tooltip="" display="https://www.jstor.org/stable/2245477?seq=1"/>
-    <hyperlink ref="F175" r:id="rId175" location="" tooltip="" display="https://www.jstor.org/stable/1912528?seq=1"/>
-    <hyperlink ref="F176" r:id="rId176" location="" tooltip="" display="https://ieeexplore.ieee.org/abstract/document/1702388"/>
-    <hyperlink ref="F177" r:id="rId177" location="" tooltip="" display="https://dl.acm.org/doi/abs/10.5555/207583"/>
-    <hyperlink ref="F178" r:id="rId178" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0003491600960172"/>
-    <hyperlink ref="F179" r:id="rId179" location="" tooltip="" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1824571/"/>
-    <hyperlink ref="F180" r:id="rId180" location="" tooltip="" display="https://www.sciencedirect.com/science/article/pii/S0031891453800996"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://github.com/S2-group/ATDx"/>
+    <hyperlink ref="F6" r:id="rId6" display="https://www.researchgate.net/profile/Roberto-Verdecchia/publication/353411185_ATDx_A_tool_for_Providing_a_Data-driven_Overview_of_Architectural_Technical_Debt_in_Software-intensive_Systems/links/60fac6130c2bfa282af72655/ATDx-A-tool-for-Providing-a-Data-driven-Overview-of-Architectural-Technical-Debt-in-Software-intensive-Systems.pdf"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F8" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F13" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F16" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19"/>
+    <hyperlink ref="F20" r:id="rId20"/>
+    <hyperlink ref="F21" r:id="rId21"/>
+    <hyperlink ref="F22" r:id="rId22"/>
+    <hyperlink ref="F23" r:id="rId23"/>
+    <hyperlink ref="F24" r:id="rId24"/>
+    <hyperlink ref="F25" r:id="rId25"/>
+    <hyperlink ref="F26" r:id="rId26"/>
+    <hyperlink ref="F27" r:id="rId27"/>
+    <hyperlink ref="F28" r:id="rId28"/>
+    <hyperlink ref="F29" r:id="rId29" location="v=onepage&amp;q=Managing%20Technical%20Debt%3A%20Reducing%20Friction%20in%20Software%20Development&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=R3qSDwAAQBAJ&amp;oi=fnd&amp;pg=PT15&amp;dq=Managing+Technical+Debt:+Reducing+Friction+in+Software+Development&amp;ots=fplJY-lUlS&amp;sig=0mCG9EfAXGT3XiZAfDzA4Vq094E&amp;redir_esc=y#v=onepage&amp;q=Managing%20Technical%20Debt%3A%20Reducing%20Friction%20in%20Software%20Development&amp;f=false"/>
+    <hyperlink ref="F30" r:id="rId30"/>
+    <hyperlink ref="F31" r:id="rId31"/>
+    <hyperlink ref="F32" r:id="rId32"/>
+    <hyperlink ref="F33" r:id="rId33"/>
+    <hyperlink ref="F34" r:id="rId34"/>
+    <hyperlink ref="F35" r:id="rId35"/>
+    <hyperlink ref="F36" r:id="rId36"/>
+    <hyperlink ref="F37" r:id="rId37"/>
+    <hyperlink ref="F38" r:id="rId38"/>
+    <hyperlink ref="F39" r:id="rId39"/>
+    <hyperlink ref="F40" r:id="rId40"/>
+    <hyperlink ref="F41" r:id="rId41"/>
+    <hyperlink ref="F42" r:id="rId42"/>
+    <hyperlink ref="F43" r:id="rId43"/>
+    <hyperlink ref="F44" r:id="rId44"/>
+    <hyperlink ref="F45" r:id="rId45"/>
+    <hyperlink ref="F46" r:id="rId46"/>
+    <hyperlink ref="F47" r:id="rId47"/>
+    <hyperlink ref="F48" r:id="rId48"/>
+    <hyperlink ref="F49" r:id="rId49"/>
+    <hyperlink ref="F50" r:id="rId50"/>
+    <hyperlink ref="E51" r:id="rId51" display="https://github.com/ishepard/pydriller"/>
+    <hyperlink ref="F51" r:id="rId52"/>
+    <hyperlink ref="F52" r:id="rId53"/>
+    <hyperlink ref="F53" r:id="rId54"/>
+    <hyperlink ref="F54" r:id="rId55"/>
+    <hyperlink ref="F55" r:id="rId56"/>
+    <hyperlink ref="F56" r:id="rId57"/>
+    <hyperlink ref="F57" r:id="rId58"/>
+    <hyperlink ref="F58" r:id="rId59"/>
+    <hyperlink ref="F59" r:id="rId60"/>
+    <hyperlink ref="F60" r:id="rId61"/>
+    <hyperlink ref="F61" r:id="rId62"/>
+    <hyperlink ref="F62" r:id="rId63"/>
+    <hyperlink ref="F63" r:id="rId64"/>
+    <hyperlink ref="F64" r:id="rId65"/>
+    <hyperlink ref="F65" r:id="rId66"/>
+    <hyperlink ref="F66" r:id="rId67"/>
+    <hyperlink ref="F67" r:id="rId68"/>
+    <hyperlink ref="F68" r:id="rId69"/>
+    <hyperlink ref="F69" r:id="rId70"/>
+    <hyperlink ref="F70" r:id="rId71"/>
+    <hyperlink ref="F71" r:id="rId72"/>
+    <hyperlink ref="F72" r:id="rId73"/>
+    <hyperlink ref="F73" r:id="rId74"/>
+    <hyperlink ref="F74" r:id="rId75"/>
+    <hyperlink ref="F75" r:id="rId76"/>
+    <hyperlink ref="F76" r:id="rId77"/>
+    <hyperlink ref="F77" r:id="rId78"/>
+    <hyperlink ref="F78" r:id="rId79"/>
+    <hyperlink ref="F79" r:id="rId80"/>
+    <hyperlink ref="F80" r:id="rId81"/>
+    <hyperlink ref="F81" r:id="rId82"/>
+    <hyperlink ref="F82" r:id="rId83"/>
+    <hyperlink ref="F83" r:id="rId84"/>
+    <hyperlink ref="F84" r:id="rId85"/>
+    <hyperlink ref="F85" r:id="rId86"/>
+    <hyperlink ref="F86" r:id="rId87"/>
+    <hyperlink ref="F87" r:id="rId88"/>
+    <hyperlink ref="F88" r:id="rId89"/>
+    <hyperlink ref="F89" r:id="rId90"/>
+    <hyperlink ref="F90" r:id="rId91"/>
+    <hyperlink ref="F91" r:id="rId92"/>
+    <hyperlink ref="F92" r:id="rId93"/>
+    <hyperlink ref="F93" r:id="rId94"/>
+    <hyperlink ref="F94" r:id="rId95" location="v=onepage&amp;q=Research%20Methods%3A%20The%20Essential%20Knowledge%20Base&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=0yxBBAAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Research+Methods:+The+Essential+Knowledge+Base&amp;ots=AFzQRcRIf-&amp;sig=mAziIAxo34qWmGEzB5f1vWCfyS0&amp;redir_esc=y#v=onepage&amp;q=Research%20Methods%3A%20The%20Essential%20Knowledge%20Base&amp;f=false"/>
+    <hyperlink ref="F95" r:id="rId96" location="v=onepage&amp;q=Applied%20regression%20analysis%20and%20generalized%20linear%20models&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=3wrwCQAAQBAJ&amp;oi=fnd&amp;pg=PT15&amp;dq=Applied+regression+analysis+and+generalized+linear+models&amp;ots=3AasCdxgak&amp;sig=GipCu6icU16wsROc7JplgFi3wYQ&amp;redir_esc=y#v=onepage&amp;q=Applied%20regression%20analysis%20and%20generalized%20linear%20models&amp;f=false"/>
+    <hyperlink ref="F96" r:id="rId97"/>
+    <hyperlink ref="F97" r:id="rId98"/>
+    <hyperlink ref="F98" r:id="rId99"/>
+    <hyperlink ref="F99" r:id="rId100"/>
+    <hyperlink ref="F100" r:id="rId101"/>
+    <hyperlink ref="F101" r:id="rId102"/>
+    <hyperlink ref="F102" r:id="rId103" location="v=onepage&amp;q=Refactoring%20for%20software%20design%20smells%3A%20managing%20technical%20debt&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=1SaOAwAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Refactoring+for+software+design+smells:+managing+technical+debt&amp;ots=Oxf1DF3yIc&amp;sig=FMPq9k5BYWA5xatE3LWqRkwom0I&amp;redir_esc=y#v=onepage&amp;q=Refactoring%20for%20software%20design%20smells%3A%20managing%20technical%20debt&amp;f=false"/>
+    <hyperlink ref="F103" r:id="rId104"/>
+    <hyperlink ref="F104" r:id="rId105"/>
+    <hyperlink ref="E105" r:id="rId106" display="https://art.cs.drexel.edu/~lx52/titan.mp4"/>
+    <hyperlink ref="F105" r:id="rId107"/>
+    <hyperlink ref="F106" r:id="rId108"/>
+    <hyperlink ref="F107" r:id="rId109"/>
+    <hyperlink ref="F108" r:id="rId110"/>
+    <hyperlink ref="F109" r:id="rId111"/>
+    <hyperlink ref="F110" r:id="rId112"/>
+    <hyperlink ref="F111" r:id="rId113"/>
+    <hyperlink ref="F112" r:id="rId114"/>
+    <hyperlink ref="F113" r:id="rId115"/>
+    <hyperlink ref="F114" r:id="rId116" location="v=onepage&amp;q=Statistical%20methods%20for%20rates%20and%20proportions&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=9VefO7a8GeAC&amp;oi=fnd&amp;pg=PT13&amp;dq=Statistical+methods+for+rates+and+proportions&amp;ots=pr4iKGtyDV&amp;sig=A7p3ZRHLBq99r4A-3lq3NwLZY50&amp;redir_esc=y#v=onepage&amp;q=Statistical%20methods%20for%20rates%20and%20proportions&amp;f=false"/>
+    <hyperlink ref="F115" r:id="rId117"/>
+    <hyperlink ref="F116" r:id="rId118"/>
+    <hyperlink ref="F117" r:id="rId119"/>
+    <hyperlink ref="F118" r:id="rId120"/>
+    <hyperlink ref="F119" r:id="rId121" location="v=onepage&amp;q=Handbook%20of%20univariate%20and%20multivariate%20data%20analysis%20with%20IBM%20SPSS&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=DXtFAQAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=Handbook+of+univariate+and+multivariate+data+analysis+with+IBM+SPSS&amp;ots=5q0nWXJ5NT&amp;sig=3GhnixfTwUC2ysE_1O8NBXTipbE&amp;redir_esc=y#v=onepage&amp;q=Handbook%20of%20univariate%20and%20multivariate%20data%20analysis%20with%20IBM%20SPSS&amp;f=false"/>
+    <hyperlink ref="F120" r:id="rId122"/>
+    <hyperlink ref="F121" r:id="rId123"/>
+    <hyperlink ref="F122" r:id="rId124"/>
+    <hyperlink ref="F123" r:id="rId125"/>
+    <hyperlink ref="F124" r:id="rId126" location="v=onepage&amp;q=Experimentation%20in%20software%20engineering&amp;f=false"/>
+    <hyperlink ref="F125" r:id="rId127"/>
+    <hyperlink ref="F126" r:id="rId128"/>
+    <hyperlink ref="F127" r:id="rId129"/>
+    <hyperlink ref="F128" r:id="rId130"/>
+    <hyperlink ref="F129" r:id="rId131" location="v=onepage&amp;q=Case%20Study%20Research%20in%20Software%20Engineering%3A%20Guidelines%20and%20Examples&amp;f=false" display="https://books.google.com.br/books?hl=en&amp;lr=&amp;id=T7rXoaxqPIAC&amp;oi=fnd&amp;pg=PT8&amp;dq=Case+Study+Research+in+Software+Engineering:+Guidelines+and+Examples&amp;ots=bcBrvcEazM&amp;sig=0YJQ2wxNXjbZFKR6sc-hS9Z0zZM&amp;redir_esc=y#v=onepage&amp;q=Case%20Study%20Research%20in%20Software%20Engineering%3A%20Guidelines%20and%20Examples&amp;f=false"/>
+    <hyperlink ref="F130" r:id="rId132"/>
+    <hyperlink ref="F131" r:id="rId133"/>
+    <hyperlink ref="F132" r:id="rId134"/>
+    <hyperlink ref="F133" r:id="rId135"/>
+    <hyperlink ref="F134" r:id="rId136"/>
+    <hyperlink ref="F135" r:id="rId137"/>
+    <hyperlink ref="F136" r:id="rId138"/>
+    <hyperlink ref="F137" r:id="rId139"/>
+    <hyperlink ref="F138" r:id="rId140"/>
+    <hyperlink ref="F139" r:id="rId141"/>
+    <hyperlink ref="F141" r:id="rId142"/>
+    <hyperlink ref="F142" r:id="rId143"/>
+    <hyperlink ref="F143" r:id="rId144"/>
+    <hyperlink ref="F144" r:id="rId145"/>
+    <hyperlink ref="F145" r:id="rId146"/>
+    <hyperlink ref="F146" r:id="rId147"/>
+    <hyperlink ref="F147" r:id="rId148"/>
+    <hyperlink ref="F148" r:id="rId149"/>
+    <hyperlink ref="F149" r:id="rId150"/>
+    <hyperlink ref="F150" r:id="rId151" display="https://www.researchgate.net/profile/Barbara-Kitchenham/publication/302924724_Guidelines_for_performing_Systematic_Literature_Reviews_in_Software_Engineering/links/61712932766c4a211c03a6f7/Guidelines-for-performing-Systematic-Literature-Reviews-in-Software-Engineering.pdf"/>
+    <hyperlink ref="F151" r:id="rId152"/>
+    <hyperlink ref="F152" r:id="rId153"/>
+    <hyperlink ref="F153" r:id="rId154"/>
+    <hyperlink ref="F154" r:id="rId155"/>
+    <hyperlink ref="F155" r:id="rId156"/>
+    <hyperlink ref="F156" r:id="rId157"/>
+    <hyperlink ref="F157" r:id="rId158"/>
+    <hyperlink ref="F158" r:id="rId159"/>
+    <hyperlink ref="F159" r:id="rId160"/>
+    <hyperlink ref="F160" r:id="rId161"/>
+    <hyperlink ref="F161" r:id="rId162" location="v=onepage&amp;q=Software%20architecture%20in%20practice&amp;f=false"/>
+    <hyperlink ref="F162" r:id="rId163"/>
+    <hyperlink ref="F163" r:id="rId164"/>
+    <hyperlink ref="F164" r:id="rId165"/>
+    <hyperlink ref="F165" r:id="rId166"/>
+    <hyperlink ref="F166" r:id="rId167"/>
+    <hyperlink ref="F167" r:id="rId168"/>
+    <hyperlink ref="F168" r:id="rId169"/>
+    <hyperlink ref="F169" r:id="rId170"/>
+    <hyperlink ref="F170" r:id="rId171"/>
+    <hyperlink ref="F171" r:id="rId172"/>
+    <hyperlink ref="F172" r:id="rId173"/>
+    <hyperlink ref="F173" r:id="rId174"/>
+    <hyperlink ref="F174" r:id="rId175"/>
+    <hyperlink ref="F175" r:id="rId176"/>
+    <hyperlink ref="F176" r:id="rId177"/>
+    <hyperlink ref="F177" r:id="rId178"/>
+    <hyperlink ref="F178" r:id="rId179"/>
+    <hyperlink ref="F179" r:id="rId180"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>